--- a/data/unchecked/manual_collect/china/fujian/fujianCaseStatistics_20200328.xlsx
+++ b/data/unchecked/manual_collect/china/fujian/fujianCaseStatistics_20200328.xlsx
@@ -1,17 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22527"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chen\Desktop\ncov\COVID-19\data\unchecked\manual_collect\china\fujian\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{981758DA-1F38-423E-AA6A-BB7B6660B02C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="22500" windowHeight="11310"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="新数据表" sheetId="1" r:id="rId1"/>
     <sheet name="中国各省市区县数据" sheetId="3" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">新数据表!$A$1:$AN$79</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">新数据表!$A$1:$AN$83</definedName>
     <definedName name="阿坝藏族羌族自治州">中国各省市区县数据!$C$2158:$C$2170</definedName>
     <definedName name="阿克苏地区">中国各省市区县数据!$C$2796:$C$2804</definedName>
     <definedName name="阿拉善盟">中国各省市区县数据!$C$419:$C$421</definedName>
@@ -383,7 +389,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10025" uniqueCount="3306">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10035" uniqueCount="3307">
   <si>
     <t>序号</t>
   </si>
@@ -10313,19 +10319,19 @@
   <si>
     <t>吉木乃县</t>
   </si>
+  <si>
+    <t>越南</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="5">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="yyyy/m/d\ hh:mm"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="178" formatCode="yyyy/m/d\ hh:mm"/>
   </numFmts>
-  <fonts count="31">
+  <fonts count="12">
     <font>
       <sz val="12"/>
       <color indexed="8"/>
@@ -10408,151 +10414,8 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="DengXian"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="DengXian"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="DengXian"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="DengXian"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="DengXian"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="35">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -10571,194 +10434,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="9">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -10766,249 +10443,10 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="14" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
   <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -11045,7 +10483,7 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="176" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="178" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -11067,7 +10505,7 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="0" xfId="10" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -11076,61 +10514,18 @@
     </xf>
     <xf numFmtId="22" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
+    <cellStyle name="超链接" xfId="1" builtinId="8"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -11388,55 +10783,54 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:AN83"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:AN84"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="E1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A49" activePane="bottomLeft" state="frozen"/>
-      <selection/>
-      <selection pane="bottomLeft" activeCell="O81" sqref="O81"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A62" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="L82" sqref="L82"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.9375" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="5.0625" style="13" customWidth="1"/>
-    <col min="2" max="2" width="8.9375" style="13" customWidth="1"/>
-    <col min="3" max="3" width="14.46875" style="14" customWidth="1"/>
-    <col min="4" max="4" width="14.46875" style="13" customWidth="1"/>
-    <col min="5" max="5" width="5.0625" style="15" customWidth="1"/>
+    <col min="1" max="1" width="5.08984375" style="13" customWidth="1"/>
+    <col min="2" max="2" width="8.90625" style="13" customWidth="1"/>
+    <col min="3" max="3" width="14.453125" style="14" customWidth="1"/>
+    <col min="4" max="4" width="14.453125" style="13" customWidth="1"/>
+    <col min="5" max="5" width="5.08984375" style="15" customWidth="1"/>
     <col min="6" max="6" width="7" style="15" customWidth="1"/>
     <col min="7" max="7" width="7" style="13" customWidth="1"/>
-    <col min="8" max="8" width="10.9375" style="15" customWidth="1"/>
-    <col min="9" max="13" width="12.9375" style="13" customWidth="1"/>
-    <col min="14" max="14" width="12.9375" style="15" customWidth="1"/>
-    <col min="15" max="16" width="12.9375" style="13" customWidth="1"/>
-    <col min="17" max="17" width="8.9375" style="13" customWidth="1"/>
-    <col min="18" max="19" width="12.9375" style="13" customWidth="1"/>
-    <col min="20" max="20" width="18.0625" style="14" customWidth="1"/>
-    <col min="21" max="22" width="10.9375" style="13" customWidth="1"/>
-    <col min="23" max="24" width="17.0625" style="13" customWidth="1"/>
-    <col min="25" max="25" width="21.234375" style="13" customWidth="1"/>
-    <col min="26" max="26" width="15.703125" style="13" customWidth="1"/>
-    <col min="27" max="27" width="12.9375" style="13" customWidth="1"/>
-    <col min="28" max="28" width="22.234375" style="13" customWidth="1"/>
-    <col min="29" max="29" width="12.9375" style="13" customWidth="1"/>
-    <col min="30" max="31" width="17.0625" style="13" customWidth="1"/>
-    <col min="32" max="32" width="26.3515625" style="13" customWidth="1"/>
-    <col min="33" max="33" width="17.0625" style="13" customWidth="1"/>
-    <col min="34" max="35" width="8.9375" style="13" customWidth="1"/>
-    <col min="36" max="37" width="17.0625" style="13" customWidth="1"/>
-    <col min="38" max="38" width="26.3515625" style="13" customWidth="1"/>
-    <col min="39" max="39" width="17.0625" style="13" customWidth="1"/>
-    <col min="40" max="40" width="5.0625" style="13" customWidth="1"/>
-    <col min="41" max="16384" width="10.9375" style="13"/>
+    <col min="8" max="8" width="10.90625" style="15" customWidth="1"/>
+    <col min="9" max="13" width="12.90625" style="13" customWidth="1"/>
+    <col min="14" max="14" width="12.90625" style="15" customWidth="1"/>
+    <col min="15" max="16" width="12.90625" style="13" customWidth="1"/>
+    <col min="17" max="17" width="8.90625" style="13" customWidth="1"/>
+    <col min="18" max="19" width="12.90625" style="13" customWidth="1"/>
+    <col min="20" max="20" width="18.08984375" style="14" customWidth="1"/>
+    <col min="21" max="22" width="10.90625" style="13" customWidth="1"/>
+    <col min="23" max="24" width="17.08984375" style="13" customWidth="1"/>
+    <col min="25" max="25" width="21.26953125" style="13" customWidth="1"/>
+    <col min="26" max="26" width="15.7265625" style="13" customWidth="1"/>
+    <col min="27" max="27" width="12.90625" style="13" customWidth="1"/>
+    <col min="28" max="28" width="22.26953125" style="13" customWidth="1"/>
+    <col min="29" max="29" width="12.90625" style="13" customWidth="1"/>
+    <col min="30" max="31" width="17.08984375" style="13" customWidth="1"/>
+    <col min="32" max="32" width="26.36328125" style="13" customWidth="1"/>
+    <col min="33" max="33" width="17.08984375" style="13" customWidth="1"/>
+    <col min="34" max="35" width="8.90625" style="13" customWidth="1"/>
+    <col min="36" max="37" width="17.08984375" style="13" customWidth="1"/>
+    <col min="38" max="38" width="26.36328125" style="13" customWidth="1"/>
+    <col min="39" max="39" width="17.08984375" style="13" customWidth="1"/>
+    <col min="40" max="40" width="5.08984375" style="13" customWidth="1"/>
+    <col min="41" max="16384" width="10.90625" style="13"/>
   </cols>
   <sheetData>
-    <row r="1" s="11" customFormat="1" customHeight="1" spans="1:40">
+    <row r="1" spans="1:40" s="11" customFormat="1" ht="15" customHeight="1">
       <c r="A1" s="16" t="s">
         <v>0</v>
       </c>
@@ -11558,7 +10952,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="2" s="12" customFormat="1" customHeight="1" spans="1:40">
+    <row r="2" spans="1:40" s="12" customFormat="1" ht="15" customHeight="1">
       <c r="A2" s="17">
         <v>1</v>
       </c>
@@ -11566,10 +10960,10 @@
         <v>40</v>
       </c>
       <c r="C2" s="18">
-        <v>43917</v>
+        <v>43918</v>
       </c>
       <c r="D2" s="18">
-        <v>43918</v>
+        <v>43919</v>
       </c>
       <c r="E2" s="15" t="s">
         <v>41</v>
@@ -11580,13 +10974,15 @@
       <c r="G2" s="15"/>
       <c r="H2" s="15"/>
       <c r="I2" s="19">
-        <v>6</v>
-      </c>
-      <c r="J2" s="19"/>
+        <v>1</v>
+      </c>
+      <c r="J2" s="19">
+        <v>1</v>
+      </c>
       <c r="K2" s="19"/>
       <c r="L2" s="19"/>
       <c r="M2" s="19">
-        <v>328</v>
+        <v>338</v>
       </c>
       <c r="N2" s="19"/>
       <c r="O2" s="19">
@@ -11601,7 +10997,7 @@
         <v>43</v>
       </c>
       <c r="T2" s="20">
-        <v>43919.3465277778</v>
+        <v>43919.346527777801</v>
       </c>
       <c r="U2" s="21" t="s">
         <v>44</v>
@@ -11613,7 +11009,7 @@
       <c r="X2" s="24"/>
       <c r="Y2" s="24"/>
       <c r="Z2" s="25">
-        <v>43919.41875</v>
+        <v>43919.418749999997</v>
       </c>
       <c r="AA2" s="15" t="s">
         <v>46</v>
@@ -11634,7 +11030,7 @@
       <c r="AM2" s="24"/>
       <c r="AN2" s="24"/>
     </row>
-    <row r="3" s="12" customFormat="1" customHeight="1" spans="1:40">
+    <row r="3" spans="1:40" s="12" customFormat="1" ht="15" customHeight="1">
       <c r="A3" s="17">
         <v>2</v>
       </c>
@@ -11642,10 +11038,10 @@
         <v>48</v>
       </c>
       <c r="C3" s="18">
-        <v>43917</v>
+        <v>43918</v>
       </c>
       <c r="D3" s="18">
-        <v>43918</v>
+        <v>43919</v>
       </c>
       <c r="E3" s="15" t="s">
         <v>41</v>
@@ -11675,7 +11071,7 @@
         <v>43</v>
       </c>
       <c r="T3" s="20">
-        <v>43919.3465277778</v>
+        <v>43919.346527777801</v>
       </c>
       <c r="U3" s="21" t="s">
         <v>44</v>
@@ -11687,7 +11083,7 @@
       <c r="X3" s="24"/>
       <c r="Y3" s="24"/>
       <c r="Z3" s="25">
-        <v>43919.41875</v>
+        <v>43919.418749999997</v>
       </c>
       <c r="AA3" s="15" t="s">
         <v>46</v>
@@ -11708,7 +11104,7 @@
       <c r="AM3" s="24"/>
       <c r="AN3" s="24"/>
     </row>
-    <row r="4" s="12" customFormat="1" customHeight="1" spans="1:40">
+    <row r="4" spans="1:40" s="12" customFormat="1" ht="15" customHeight="1">
       <c r="A4" s="17">
         <v>3</v>
       </c>
@@ -11716,10 +11112,10 @@
         <v>50</v>
       </c>
       <c r="C4" s="18">
-        <v>43917</v>
+        <v>43918</v>
       </c>
       <c r="D4" s="18">
-        <v>43918</v>
+        <v>43919</v>
       </c>
       <c r="E4" s="15" t="s">
         <v>41</v>
@@ -11751,7 +11147,7 @@
         <v>43</v>
       </c>
       <c r="T4" s="20">
-        <v>43919.3465277778</v>
+        <v>43919.346527777801</v>
       </c>
       <c r="U4" s="21" t="s">
         <v>44</v>
@@ -11763,7 +11159,7 @@
       <c r="X4" s="24"/>
       <c r="Y4" s="24"/>
       <c r="Z4" s="25">
-        <v>43919.41875</v>
+        <v>43919.418749999997</v>
       </c>
       <c r="AA4" s="15" t="s">
         <v>46</v>
@@ -11784,7 +11180,7 @@
       <c r="AM4" s="24"/>
       <c r="AN4" s="24"/>
     </row>
-    <row r="5" s="12" customFormat="1" customHeight="1" spans="1:40">
+    <row r="5" spans="1:40" s="12" customFormat="1" ht="15" customHeight="1">
       <c r="A5" s="17">
         <v>4</v>
       </c>
@@ -11792,10 +11188,10 @@
         <v>50</v>
       </c>
       <c r="C5" s="18">
-        <v>43917</v>
+        <v>43918</v>
       </c>
       <c r="D5" s="18">
-        <v>43918</v>
+        <v>43919</v>
       </c>
       <c r="E5" s="15" t="s">
         <v>41</v>
@@ -11827,7 +11223,7 @@
         <v>43</v>
       </c>
       <c r="T5" s="20">
-        <v>43919.3465277778</v>
+        <v>43919.346527777801</v>
       </c>
       <c r="U5" s="21" t="s">
         <v>44</v>
@@ -11839,7 +11235,7 @@
       <c r="X5" s="24"/>
       <c r="Y5" s="24"/>
       <c r="Z5" s="25">
-        <v>43919.41875</v>
+        <v>43919.418749999997</v>
       </c>
       <c r="AA5" s="15" t="s">
         <v>46</v>
@@ -11860,7 +11256,7 @@
       <c r="AM5" s="24"/>
       <c r="AN5" s="24"/>
     </row>
-    <row r="6" s="12" customFormat="1" customHeight="1" spans="1:40">
+    <row r="6" spans="1:40" s="12" customFormat="1" ht="15" customHeight="1">
       <c r="A6" s="17">
         <v>5</v>
       </c>
@@ -11868,10 +11264,10 @@
         <v>50</v>
       </c>
       <c r="C6" s="18">
-        <v>43917</v>
+        <v>43918</v>
       </c>
       <c r="D6" s="18">
-        <v>43918</v>
+        <v>43919</v>
       </c>
       <c r="E6" s="15" t="s">
         <v>41</v>
@@ -11903,7 +11299,7 @@
         <v>43</v>
       </c>
       <c r="T6" s="20">
-        <v>43919.3465277778</v>
+        <v>43919.346527777801</v>
       </c>
       <c r="U6" s="21" t="s">
         <v>44</v>
@@ -11915,7 +11311,7 @@
       <c r="X6" s="24"/>
       <c r="Y6" s="24"/>
       <c r="Z6" s="25">
-        <v>43919.41875</v>
+        <v>43919.418749999997</v>
       </c>
       <c r="AA6" s="15" t="s">
         <v>46</v>
@@ -11936,7 +11332,7 @@
       <c r="AM6" s="24"/>
       <c r="AN6" s="24"/>
     </row>
-    <row r="7" s="12" customFormat="1" customHeight="1" spans="1:40">
+    <row r="7" spans="1:40" s="12" customFormat="1" ht="15" customHeight="1">
       <c r="A7" s="17">
         <v>6</v>
       </c>
@@ -11944,10 +11340,10 @@
         <v>50</v>
       </c>
       <c r="C7" s="18">
-        <v>43917</v>
+        <v>43918</v>
       </c>
       <c r="D7" s="18">
-        <v>43918</v>
+        <v>43919</v>
       </c>
       <c r="E7" s="15" t="s">
         <v>41</v>
@@ -11979,7 +11375,7 @@
         <v>43</v>
       </c>
       <c r="T7" s="20">
-        <v>43919.3465277778</v>
+        <v>43919.346527777801</v>
       </c>
       <c r="U7" s="21" t="s">
         <v>44</v>
@@ -11991,7 +11387,7 @@
       <c r="X7" s="24"/>
       <c r="Y7" s="24"/>
       <c r="Z7" s="25">
-        <v>43919.41875</v>
+        <v>43919.418749999997</v>
       </c>
       <c r="AA7" s="15" t="s">
         <v>46</v>
@@ -12012,7 +11408,7 @@
       <c r="AM7" s="24"/>
       <c r="AN7" s="24"/>
     </row>
-    <row r="8" s="12" customFormat="1" customHeight="1" spans="1:40">
+    <row r="8" spans="1:40" s="12" customFormat="1" ht="15" customHeight="1">
       <c r="A8" s="17">
         <v>7</v>
       </c>
@@ -12020,10 +11416,10 @@
         <v>50</v>
       </c>
       <c r="C8" s="18">
-        <v>43917</v>
+        <v>43918</v>
       </c>
       <c r="D8" s="18">
-        <v>43918</v>
+        <v>43919</v>
       </c>
       <c r="E8" s="15" t="s">
         <v>41</v>
@@ -12055,7 +11451,7 @@
         <v>43</v>
       </c>
       <c r="T8" s="20">
-        <v>43919.3465277778</v>
+        <v>43919.346527777801</v>
       </c>
       <c r="U8" s="21" t="s">
         <v>44</v>
@@ -12067,7 +11463,7 @@
       <c r="X8" s="24"/>
       <c r="Y8" s="24"/>
       <c r="Z8" s="25">
-        <v>43919.41875</v>
+        <v>43919.418749999997</v>
       </c>
       <c r="AA8" s="15" t="s">
         <v>46</v>
@@ -12088,7 +11484,7 @@
       <c r="AM8" s="24"/>
       <c r="AN8" s="24"/>
     </row>
-    <row r="9" s="12" customFormat="1" customHeight="1" spans="1:40">
+    <row r="9" spans="1:40" s="12" customFormat="1" ht="15" customHeight="1">
       <c r="A9" s="17">
         <v>8</v>
       </c>
@@ -12096,10 +11492,10 @@
         <v>50</v>
       </c>
       <c r="C9" s="18">
-        <v>43917</v>
+        <v>43918</v>
       </c>
       <c r="D9" s="18">
-        <v>43918</v>
+        <v>43919</v>
       </c>
       <c r="E9" s="15" t="s">
         <v>41</v>
@@ -12131,7 +11527,7 @@
         <v>43</v>
       </c>
       <c r="T9" s="20">
-        <v>43919.3465277778</v>
+        <v>43919.346527777801</v>
       </c>
       <c r="U9" s="21" t="s">
         <v>44</v>
@@ -12143,7 +11539,7 @@
       <c r="X9" s="24"/>
       <c r="Y9" s="24"/>
       <c r="Z9" s="25">
-        <v>43919.41875</v>
+        <v>43919.418749999997</v>
       </c>
       <c r="AA9" s="15" t="s">
         <v>46</v>
@@ -12164,7 +11560,7 @@
       <c r="AM9" s="24"/>
       <c r="AN9" s="24"/>
     </row>
-    <row r="10" s="12" customFormat="1" customHeight="1" spans="1:40">
+    <row r="10" spans="1:40" s="12" customFormat="1" ht="15" customHeight="1">
       <c r="A10" s="17">
         <v>9</v>
       </c>
@@ -12172,10 +11568,10 @@
         <v>48</v>
       </c>
       <c r="C10" s="18">
-        <v>43917</v>
+        <v>43918</v>
       </c>
       <c r="D10" s="18">
-        <v>43918</v>
+        <v>43919</v>
       </c>
       <c r="E10" s="15" t="s">
         <v>41</v>
@@ -12205,7 +11601,7 @@
         <v>43</v>
       </c>
       <c r="T10" s="20">
-        <v>43919.3465277778</v>
+        <v>43919.346527777801</v>
       </c>
       <c r="U10" s="21" t="s">
         <v>44</v>
@@ -12217,7 +11613,7 @@
       <c r="X10" s="24"/>
       <c r="Y10" s="24"/>
       <c r="Z10" s="25">
-        <v>43919.41875</v>
+        <v>43919.418749999997</v>
       </c>
       <c r="AA10" s="15" t="s">
         <v>46</v>
@@ -12238,7 +11634,7 @@
       <c r="AM10" s="24"/>
       <c r="AN10" s="24"/>
     </row>
-    <row r="11" s="12" customFormat="1" customHeight="1" spans="1:40">
+    <row r="11" spans="1:40" s="12" customFormat="1" ht="15" customHeight="1">
       <c r="A11" s="17">
         <v>10</v>
       </c>
@@ -12246,10 +11642,10 @@
         <v>50</v>
       </c>
       <c r="C11" s="18">
-        <v>43917</v>
+        <v>43918</v>
       </c>
       <c r="D11" s="18">
-        <v>43918</v>
+        <v>43919</v>
       </c>
       <c r="E11" s="15" t="s">
         <v>41</v>
@@ -12281,7 +11677,7 @@
         <v>43</v>
       </c>
       <c r="T11" s="20">
-        <v>43919.3465277778</v>
+        <v>43919.346527777801</v>
       </c>
       <c r="U11" s="21" t="s">
         <v>44</v>
@@ -12293,7 +11689,7 @@
       <c r="X11" s="24"/>
       <c r="Y11" s="24"/>
       <c r="Z11" s="25">
-        <v>43919.41875</v>
+        <v>43919.418749999997</v>
       </c>
       <c r="AA11" s="15" t="s">
         <v>46</v>
@@ -12314,7 +11710,7 @@
       <c r="AM11" s="24"/>
       <c r="AN11" s="24"/>
     </row>
-    <row r="12" s="12" customFormat="1" customHeight="1" spans="1:40">
+    <row r="12" spans="1:40" s="12" customFormat="1" ht="15" customHeight="1">
       <c r="A12" s="17">
         <v>11</v>
       </c>
@@ -12322,10 +11718,10 @@
         <v>50</v>
       </c>
       <c r="C12" s="18">
-        <v>43917</v>
+        <v>43918</v>
       </c>
       <c r="D12" s="18">
-        <v>43918</v>
+        <v>43919</v>
       </c>
       <c r="E12" s="15" t="s">
         <v>41</v>
@@ -12357,7 +11753,7 @@
         <v>43</v>
       </c>
       <c r="T12" s="20">
-        <v>43919.3465277778</v>
+        <v>43919.346527777801</v>
       </c>
       <c r="U12" s="21" t="s">
         <v>44</v>
@@ -12369,7 +11765,7 @@
       <c r="X12" s="24"/>
       <c r="Y12" s="24"/>
       <c r="Z12" s="25">
-        <v>43919.41875</v>
+        <v>43919.418749999997</v>
       </c>
       <c r="AA12" s="15" t="s">
         <v>46</v>
@@ -12390,7 +11786,7 @@
       <c r="AM12" s="24"/>
       <c r="AN12" s="24"/>
     </row>
-    <row r="13" s="12" customFormat="1" customHeight="1" spans="1:40">
+    <row r="13" spans="1:40" s="12" customFormat="1" ht="15" customHeight="1">
       <c r="A13" s="17">
         <v>12</v>
       </c>
@@ -12398,10 +11794,10 @@
         <v>50</v>
       </c>
       <c r="C13" s="18">
-        <v>43917</v>
+        <v>43918</v>
       </c>
       <c r="D13" s="18">
-        <v>43918</v>
+        <v>43919</v>
       </c>
       <c r="E13" s="15" t="s">
         <v>41</v>
@@ -12433,7 +11829,7 @@
         <v>43</v>
       </c>
       <c r="T13" s="20">
-        <v>43919.3465277778</v>
+        <v>43919.346527777801</v>
       </c>
       <c r="U13" s="21" t="s">
         <v>44</v>
@@ -12445,7 +11841,7 @@
       <c r="X13" s="24"/>
       <c r="Y13" s="24"/>
       <c r="Z13" s="25">
-        <v>43919.41875</v>
+        <v>43919.418749999997</v>
       </c>
       <c r="AA13" s="15" t="s">
         <v>46</v>
@@ -12466,7 +11862,7 @@
       <c r="AM13" s="24"/>
       <c r="AN13" s="24"/>
     </row>
-    <row r="14" s="12" customFormat="1" customHeight="1" spans="1:40">
+    <row r="14" spans="1:40" s="12" customFormat="1" ht="15" customHeight="1">
       <c r="A14" s="17">
         <v>13</v>
       </c>
@@ -12474,10 +11870,10 @@
         <v>50</v>
       </c>
       <c r="C14" s="18">
-        <v>43917</v>
+        <v>43918</v>
       </c>
       <c r="D14" s="18">
-        <v>43918</v>
+        <v>43919</v>
       </c>
       <c r="E14" s="15" t="s">
         <v>41</v>
@@ -12509,7 +11905,7 @@
         <v>43</v>
       </c>
       <c r="T14" s="20">
-        <v>43919.3465277778</v>
+        <v>43919.346527777801</v>
       </c>
       <c r="U14" s="21" t="s">
         <v>44</v>
@@ -12521,7 +11917,7 @@
       <c r="X14" s="24"/>
       <c r="Y14" s="24"/>
       <c r="Z14" s="25">
-        <v>43919.41875</v>
+        <v>43919.418749999997</v>
       </c>
       <c r="AA14" s="15" t="s">
         <v>46</v>
@@ -12542,7 +11938,7 @@
       <c r="AM14" s="24"/>
       <c r="AN14" s="24"/>
     </row>
-    <row r="15" s="12" customFormat="1" customHeight="1" spans="1:40">
+    <row r="15" spans="1:40" s="12" customFormat="1" ht="15" customHeight="1">
       <c r="A15" s="17">
         <v>14</v>
       </c>
@@ -12550,10 +11946,10 @@
         <v>50</v>
       </c>
       <c r="C15" s="18">
-        <v>43917</v>
+        <v>43918</v>
       </c>
       <c r="D15" s="18">
-        <v>43918</v>
+        <v>43919</v>
       </c>
       <c r="E15" s="15" t="s">
         <v>41</v>
@@ -12585,7 +11981,7 @@
         <v>43</v>
       </c>
       <c r="T15" s="20">
-        <v>43919.3465277778</v>
+        <v>43919.346527777801</v>
       </c>
       <c r="U15" s="21" t="s">
         <v>44</v>
@@ -12597,7 +11993,7 @@
       <c r="X15" s="24"/>
       <c r="Y15" s="24"/>
       <c r="Z15" s="25">
-        <v>43919.41875</v>
+        <v>43919.418749999997</v>
       </c>
       <c r="AA15" s="15" t="s">
         <v>46</v>
@@ -12618,7 +12014,7 @@
       <c r="AM15" s="24"/>
       <c r="AN15" s="24"/>
     </row>
-    <row r="16" s="12" customFormat="1" customHeight="1" spans="1:40">
+    <row r="16" spans="1:40" s="12" customFormat="1" ht="15" customHeight="1">
       <c r="A16" s="17">
         <v>15</v>
       </c>
@@ -12626,10 +12022,10 @@
         <v>50</v>
       </c>
       <c r="C16" s="18">
-        <v>43917</v>
+        <v>43918</v>
       </c>
       <c r="D16" s="18">
-        <v>43918</v>
+        <v>43919</v>
       </c>
       <c r="E16" s="15" t="s">
         <v>41</v>
@@ -12661,7 +12057,7 @@
         <v>43</v>
       </c>
       <c r="T16" s="20">
-        <v>43919.3465277778</v>
+        <v>43919.346527777801</v>
       </c>
       <c r="U16" s="21" t="s">
         <v>44</v>
@@ -12673,7 +12069,7 @@
       <c r="X16" s="24"/>
       <c r="Y16" s="24"/>
       <c r="Z16" s="25">
-        <v>43919.41875</v>
+        <v>43919.418749999997</v>
       </c>
       <c r="AA16" s="15" t="s">
         <v>46</v>
@@ -12694,7 +12090,7 @@
       <c r="AM16" s="24"/>
       <c r="AN16" s="24"/>
     </row>
-    <row r="17" s="12" customFormat="1" customHeight="1" spans="1:40">
+    <row r="17" spans="1:40" s="12" customFormat="1" ht="15" customHeight="1">
       <c r="A17" s="17">
         <v>16</v>
       </c>
@@ -12702,10 +12098,10 @@
         <v>50</v>
       </c>
       <c r="C17" s="18">
-        <v>43917</v>
+        <v>43918</v>
       </c>
       <c r="D17" s="18">
-        <v>43918</v>
+        <v>43919</v>
       </c>
       <c r="E17" s="15" t="s">
         <v>41</v>
@@ -12737,7 +12133,7 @@
         <v>43</v>
       </c>
       <c r="T17" s="20">
-        <v>43919.3465277778</v>
+        <v>43919.346527777801</v>
       </c>
       <c r="U17" s="21" t="s">
         <v>44</v>
@@ -12749,7 +12145,7 @@
       <c r="X17" s="24"/>
       <c r="Y17" s="24"/>
       <c r="Z17" s="25">
-        <v>43919.41875</v>
+        <v>43919.418749999997</v>
       </c>
       <c r="AA17" s="15" t="s">
         <v>46</v>
@@ -12770,7 +12166,7 @@
       <c r="AM17" s="24"/>
       <c r="AN17" s="24"/>
     </row>
-    <row r="18" s="12" customFormat="1" customHeight="1" spans="1:40">
+    <row r="18" spans="1:40" s="12" customFormat="1" ht="15" customHeight="1">
       <c r="A18" s="17">
         <v>17</v>
       </c>
@@ -12778,10 +12174,10 @@
         <v>50</v>
       </c>
       <c r="C18" s="18">
-        <v>43917</v>
+        <v>43918</v>
       </c>
       <c r="D18" s="18">
-        <v>43918</v>
+        <v>43919</v>
       </c>
       <c r="E18" s="15" t="s">
         <v>41</v>
@@ -12813,7 +12209,7 @@
         <v>43</v>
       </c>
       <c r="T18" s="20">
-        <v>43919.3465277778</v>
+        <v>43919.346527777801</v>
       </c>
       <c r="U18" s="21" t="s">
         <v>44</v>
@@ -12825,7 +12221,7 @@
       <c r="X18" s="24"/>
       <c r="Y18" s="24"/>
       <c r="Z18" s="25">
-        <v>43919.41875</v>
+        <v>43919.418749999997</v>
       </c>
       <c r="AA18" s="15" t="s">
         <v>46</v>
@@ -12846,7 +12242,7 @@
       <c r="AM18" s="24"/>
       <c r="AN18" s="24"/>
     </row>
-    <row r="19" s="12" customFormat="1" customHeight="1" spans="1:40">
+    <row r="19" spans="1:40" s="12" customFormat="1" ht="15" customHeight="1">
       <c r="A19" s="17">
         <v>18</v>
       </c>
@@ -12854,10 +12250,10 @@
         <v>48</v>
       </c>
       <c r="C19" s="18">
-        <v>43917</v>
+        <v>43918</v>
       </c>
       <c r="D19" s="18">
-        <v>43918</v>
+        <v>43919</v>
       </c>
       <c r="E19" s="15" t="s">
         <v>41</v>
@@ -12887,7 +12283,7 @@
         <v>43</v>
       </c>
       <c r="T19" s="20">
-        <v>43919.3465277778</v>
+        <v>43919.346527777801</v>
       </c>
       <c r="U19" s="21" t="s">
         <v>44</v>
@@ -12899,7 +12295,7 @@
       <c r="X19" s="24"/>
       <c r="Y19" s="24"/>
       <c r="Z19" s="25">
-        <v>43919.41875</v>
+        <v>43919.418749999997</v>
       </c>
       <c r="AA19" s="15" t="s">
         <v>46</v>
@@ -12920,7 +12316,7 @@
       <c r="AM19" s="24"/>
       <c r="AN19" s="24"/>
     </row>
-    <row r="20" s="12" customFormat="1" customHeight="1" spans="1:40">
+    <row r="20" spans="1:40" s="12" customFormat="1" ht="15" customHeight="1">
       <c r="A20" s="17">
         <v>19</v>
       </c>
@@ -12928,10 +12324,10 @@
         <v>50</v>
       </c>
       <c r="C20" s="18">
-        <v>43917</v>
+        <v>43918</v>
       </c>
       <c r="D20" s="18">
-        <v>43918</v>
+        <v>43919</v>
       </c>
       <c r="E20" s="15" t="s">
         <v>41</v>
@@ -12963,7 +12359,7 @@
         <v>43</v>
       </c>
       <c r="T20" s="20">
-        <v>43919.3465277778</v>
+        <v>43919.346527777801</v>
       </c>
       <c r="U20" s="21" t="s">
         <v>44</v>
@@ -12975,7 +12371,7 @@
       <c r="X20" s="24"/>
       <c r="Y20" s="24"/>
       <c r="Z20" s="25">
-        <v>43919.41875</v>
+        <v>43919.418749999997</v>
       </c>
       <c r="AA20" s="15" t="s">
         <v>46</v>
@@ -12996,7 +12392,7 @@
       <c r="AM20" s="24"/>
       <c r="AN20" s="24"/>
     </row>
-    <row r="21" s="12" customFormat="1" customHeight="1" spans="1:40">
+    <row r="21" spans="1:40" s="12" customFormat="1" ht="15" customHeight="1">
       <c r="A21" s="17">
         <v>20</v>
       </c>
@@ -13004,10 +12400,10 @@
         <v>50</v>
       </c>
       <c r="C21" s="18">
-        <v>43917</v>
+        <v>43918</v>
       </c>
       <c r="D21" s="18">
-        <v>43918</v>
+        <v>43919</v>
       </c>
       <c r="E21" s="15" t="s">
         <v>41</v>
@@ -13039,7 +12435,7 @@
         <v>43</v>
       </c>
       <c r="T21" s="20">
-        <v>43919.3465277778</v>
+        <v>43919.346527777801</v>
       </c>
       <c r="U21" s="21" t="s">
         <v>44</v>
@@ -13051,7 +12447,7 @@
       <c r="X21" s="24"/>
       <c r="Y21" s="24"/>
       <c r="Z21" s="25">
-        <v>43919.41875</v>
+        <v>43919.418749999997</v>
       </c>
       <c r="AA21" s="15" t="s">
         <v>46</v>
@@ -13072,7 +12468,7 @@
       <c r="AM21" s="24"/>
       <c r="AN21" s="24"/>
     </row>
-    <row r="22" s="12" customFormat="1" customHeight="1" spans="1:40">
+    <row r="22" spans="1:40" s="12" customFormat="1" ht="15" customHeight="1">
       <c r="A22" s="17">
         <v>21</v>
       </c>
@@ -13080,10 +12476,10 @@
         <v>50</v>
       </c>
       <c r="C22" s="18">
-        <v>43917</v>
+        <v>43918</v>
       </c>
       <c r="D22" s="18">
-        <v>43918</v>
+        <v>43919</v>
       </c>
       <c r="E22" s="15" t="s">
         <v>41</v>
@@ -13115,7 +12511,7 @@
         <v>43</v>
       </c>
       <c r="T22" s="20">
-        <v>43919.3465277778</v>
+        <v>43919.346527777801</v>
       </c>
       <c r="U22" s="21" t="s">
         <v>44</v>
@@ -13127,7 +12523,7 @@
       <c r="X22" s="24"/>
       <c r="Y22" s="24"/>
       <c r="Z22" s="25">
-        <v>43919.41875</v>
+        <v>43919.418749999997</v>
       </c>
       <c r="AA22" s="15" t="s">
         <v>46</v>
@@ -13148,7 +12544,7 @@
       <c r="AM22" s="24"/>
       <c r="AN22" s="24"/>
     </row>
-    <row r="23" s="12" customFormat="1" customHeight="1" spans="1:40">
+    <row r="23" spans="1:40" s="12" customFormat="1" ht="15" customHeight="1">
       <c r="A23" s="17">
         <v>22</v>
       </c>
@@ -13156,10 +12552,10 @@
         <v>50</v>
       </c>
       <c r="C23" s="18">
-        <v>43917</v>
+        <v>43918</v>
       </c>
       <c r="D23" s="18">
-        <v>43918</v>
+        <v>43919</v>
       </c>
       <c r="E23" s="15" t="s">
         <v>41</v>
@@ -13191,7 +12587,7 @@
         <v>43</v>
       </c>
       <c r="T23" s="20">
-        <v>43919.3465277778</v>
+        <v>43919.346527777801</v>
       </c>
       <c r="U23" s="21" t="s">
         <v>44</v>
@@ -13203,7 +12599,7 @@
       <c r="X23" s="24"/>
       <c r="Y23" s="24"/>
       <c r="Z23" s="25">
-        <v>43919.41875</v>
+        <v>43919.418749999997</v>
       </c>
       <c r="AA23" s="15" t="s">
         <v>46</v>
@@ -13224,7 +12620,7 @@
       <c r="AM23" s="24"/>
       <c r="AN23" s="24"/>
     </row>
-    <row r="24" s="12" customFormat="1" customHeight="1" spans="1:40">
+    <row r="24" spans="1:40" s="12" customFormat="1" ht="15" customHeight="1">
       <c r="A24" s="17">
         <v>23</v>
       </c>
@@ -13232,10 +12628,10 @@
         <v>50</v>
       </c>
       <c r="C24" s="18">
-        <v>43917</v>
+        <v>43918</v>
       </c>
       <c r="D24" s="18">
-        <v>43918</v>
+        <v>43919</v>
       </c>
       <c r="E24" s="15" t="s">
         <v>41</v>
@@ -13267,7 +12663,7 @@
         <v>43</v>
       </c>
       <c r="T24" s="20">
-        <v>43919.3465277778</v>
+        <v>43919.346527777801</v>
       </c>
       <c r="U24" s="21" t="s">
         <v>44</v>
@@ -13279,7 +12675,7 @@
       <c r="X24" s="24"/>
       <c r="Y24" s="24"/>
       <c r="Z24" s="25">
-        <v>43919.41875</v>
+        <v>43919.418749999997</v>
       </c>
       <c r="AA24" s="15" t="s">
         <v>46</v>
@@ -13300,7 +12696,7 @@
       <c r="AM24" s="24"/>
       <c r="AN24" s="24"/>
     </row>
-    <row r="25" s="12" customFormat="1" customHeight="1" spans="1:40">
+    <row r="25" spans="1:40" s="12" customFormat="1" ht="15" customHeight="1">
       <c r="A25" s="17">
         <v>24</v>
       </c>
@@ -13308,10 +12704,10 @@
         <v>50</v>
       </c>
       <c r="C25" s="18">
-        <v>43917</v>
+        <v>43918</v>
       </c>
       <c r="D25" s="18">
-        <v>43918</v>
+        <v>43919</v>
       </c>
       <c r="E25" s="15" t="s">
         <v>41</v>
@@ -13343,7 +12739,7 @@
         <v>43</v>
       </c>
       <c r="T25" s="20">
-        <v>43919.3465277778</v>
+        <v>43919.346527777801</v>
       </c>
       <c r="U25" s="21" t="s">
         <v>44</v>
@@ -13355,7 +12751,7 @@
       <c r="X25" s="24"/>
       <c r="Y25" s="24"/>
       <c r="Z25" s="25">
-        <v>43919.41875</v>
+        <v>43919.418749999997</v>
       </c>
       <c r="AA25" s="15" t="s">
         <v>46</v>
@@ -13376,7 +12772,7 @@
       <c r="AM25" s="24"/>
       <c r="AN25" s="24"/>
     </row>
-    <row r="26" s="12" customFormat="1" customHeight="1" spans="1:40">
+    <row r="26" spans="1:40" s="12" customFormat="1" ht="15" customHeight="1">
       <c r="A26" s="17">
         <v>25</v>
       </c>
@@ -13384,10 +12780,10 @@
         <v>50</v>
       </c>
       <c r="C26" s="18">
-        <v>43917</v>
+        <v>43918</v>
       </c>
       <c r="D26" s="18">
-        <v>43918</v>
+        <v>43919</v>
       </c>
       <c r="E26" s="15" t="s">
         <v>41</v>
@@ -13419,7 +12815,7 @@
         <v>43</v>
       </c>
       <c r="T26" s="20">
-        <v>43919.3465277778</v>
+        <v>43919.346527777801</v>
       </c>
       <c r="U26" s="21" t="s">
         <v>44</v>
@@ -13431,7 +12827,7 @@
       <c r="X26" s="24"/>
       <c r="Y26" s="24"/>
       <c r="Z26" s="25">
-        <v>43919.41875</v>
+        <v>43919.418749999997</v>
       </c>
       <c r="AA26" s="15" t="s">
         <v>46</v>
@@ -13452,7 +12848,7 @@
       <c r="AM26" s="24"/>
       <c r="AN26" s="24"/>
     </row>
-    <row r="27" s="12" customFormat="1" customHeight="1" spans="1:40">
+    <row r="27" spans="1:40" s="12" customFormat="1" ht="15" customHeight="1">
       <c r="A27" s="17">
         <v>26</v>
       </c>
@@ -13460,10 +12856,10 @@
         <v>50</v>
       </c>
       <c r="C27" s="18">
-        <v>43917</v>
+        <v>43918</v>
       </c>
       <c r="D27" s="18">
-        <v>43918</v>
+        <v>43919</v>
       </c>
       <c r="E27" s="15" t="s">
         <v>41</v>
@@ -13495,7 +12891,7 @@
         <v>43</v>
       </c>
       <c r="T27" s="20">
-        <v>43919.3465277778</v>
+        <v>43919.346527777801</v>
       </c>
       <c r="U27" s="21" t="s">
         <v>44</v>
@@ -13507,7 +12903,7 @@
       <c r="X27" s="24"/>
       <c r="Y27" s="24"/>
       <c r="Z27" s="25">
-        <v>43919.41875</v>
+        <v>43919.418749999997</v>
       </c>
       <c r="AA27" s="15" t="s">
         <v>46</v>
@@ -13528,7 +12924,7 @@
       <c r="AM27" s="24"/>
       <c r="AN27" s="24"/>
     </row>
-    <row r="28" s="12" customFormat="1" customHeight="1" spans="1:40">
+    <row r="28" spans="1:40" s="12" customFormat="1" ht="15" customHeight="1">
       <c r="A28" s="17">
         <v>27</v>
       </c>
@@ -13536,10 +12932,10 @@
         <v>50</v>
       </c>
       <c r="C28" s="18">
-        <v>43917</v>
+        <v>43918</v>
       </c>
       <c r="D28" s="18">
-        <v>43918</v>
+        <v>43919</v>
       </c>
       <c r="E28" s="15" t="s">
         <v>41</v>
@@ -13571,7 +12967,7 @@
         <v>43</v>
       </c>
       <c r="T28" s="20">
-        <v>43919.3465277778</v>
+        <v>43919.346527777801</v>
       </c>
       <c r="U28" s="21" t="s">
         <v>44</v>
@@ -13583,7 +12979,7 @@
       <c r="X28" s="24"/>
       <c r="Y28" s="24"/>
       <c r="Z28" s="25">
-        <v>43919.41875</v>
+        <v>43919.418749999997</v>
       </c>
       <c r="AA28" s="15" t="s">
         <v>46</v>
@@ -13604,7 +13000,7 @@
       <c r="AM28" s="24"/>
       <c r="AN28" s="24"/>
     </row>
-    <row r="29" s="12" customFormat="1" customHeight="1" spans="1:40">
+    <row r="29" spans="1:40" s="12" customFormat="1" ht="15" customHeight="1">
       <c r="A29" s="17">
         <v>28</v>
       </c>
@@ -13612,10 +13008,10 @@
         <v>48</v>
       </c>
       <c r="C29" s="18">
-        <v>43917</v>
+        <v>43918</v>
       </c>
       <c r="D29" s="18">
-        <v>43918</v>
+        <v>43919</v>
       </c>
       <c r="E29" s="15" t="s">
         <v>41</v>
@@ -13645,7 +13041,7 @@
         <v>43</v>
       </c>
       <c r="T29" s="20">
-        <v>43919.3465277778</v>
+        <v>43919.346527777801</v>
       </c>
       <c r="U29" s="21" t="s">
         <v>44</v>
@@ -13657,7 +13053,7 @@
       <c r="X29" s="24"/>
       <c r="Y29" s="24"/>
       <c r="Z29" s="25">
-        <v>43919.41875</v>
+        <v>43919.418749999997</v>
       </c>
       <c r="AA29" s="15" t="s">
         <v>46</v>
@@ -13678,7 +13074,7 @@
       <c r="AM29" s="24"/>
       <c r="AN29" s="24"/>
     </row>
-    <row r="30" s="12" customFormat="1" customHeight="1" spans="1:40">
+    <row r="30" spans="1:40" s="12" customFormat="1" ht="15" customHeight="1">
       <c r="A30" s="17">
         <v>29</v>
       </c>
@@ -13686,10 +13082,10 @@
         <v>50</v>
       </c>
       <c r="C30" s="18">
-        <v>43917</v>
+        <v>43918</v>
       </c>
       <c r="D30" s="18">
-        <v>43918</v>
+        <v>43919</v>
       </c>
       <c r="E30" s="15" t="s">
         <v>41</v>
@@ -13721,7 +13117,7 @@
         <v>43</v>
       </c>
       <c r="T30" s="20">
-        <v>43919.3465277778</v>
+        <v>43919.346527777801</v>
       </c>
       <c r="U30" s="21" t="s">
         <v>44</v>
@@ -13733,7 +13129,7 @@
       <c r="X30" s="24"/>
       <c r="Y30" s="24"/>
       <c r="Z30" s="25">
-        <v>43919.41875</v>
+        <v>43919.418749999997</v>
       </c>
       <c r="AA30" s="15" t="s">
         <v>46</v>
@@ -13754,7 +13150,7 @@
       <c r="AM30" s="24"/>
       <c r="AN30" s="24"/>
     </row>
-    <row r="31" s="12" customFormat="1" customHeight="1" spans="1:40">
+    <row r="31" spans="1:40" s="12" customFormat="1" ht="15" customHeight="1">
       <c r="A31" s="17">
         <v>30</v>
       </c>
@@ -13762,10 +13158,10 @@
         <v>50</v>
       </c>
       <c r="C31" s="18">
-        <v>43917</v>
+        <v>43918</v>
       </c>
       <c r="D31" s="18">
-        <v>43918</v>
+        <v>43919</v>
       </c>
       <c r="E31" s="15" t="s">
         <v>41</v>
@@ -13797,7 +13193,7 @@
         <v>43</v>
       </c>
       <c r="T31" s="20">
-        <v>43919.3465277778</v>
+        <v>43919.346527777801</v>
       </c>
       <c r="U31" s="21" t="s">
         <v>44</v>
@@ -13809,7 +13205,7 @@
       <c r="X31" s="24"/>
       <c r="Y31" s="24"/>
       <c r="Z31" s="25">
-        <v>43919.41875</v>
+        <v>43919.418749999997</v>
       </c>
       <c r="AA31" s="15" t="s">
         <v>46</v>
@@ -13830,7 +13226,7 @@
       <c r="AM31" s="24"/>
       <c r="AN31" s="24"/>
     </row>
-    <row r="32" s="12" customFormat="1" customHeight="1" spans="1:40">
+    <row r="32" spans="1:40" s="12" customFormat="1" ht="15" customHeight="1">
       <c r="A32" s="17">
         <v>31</v>
       </c>
@@ -13838,10 +13234,10 @@
         <v>50</v>
       </c>
       <c r="C32" s="18">
-        <v>43917</v>
+        <v>43918</v>
       </c>
       <c r="D32" s="18">
-        <v>43918</v>
+        <v>43919</v>
       </c>
       <c r="E32" s="15" t="s">
         <v>41</v>
@@ -13873,7 +13269,7 @@
         <v>43</v>
       </c>
       <c r="T32" s="20">
-        <v>43919.3465277778</v>
+        <v>43919.346527777801</v>
       </c>
       <c r="U32" s="21" t="s">
         <v>44</v>
@@ -13885,7 +13281,7 @@
       <c r="X32" s="24"/>
       <c r="Y32" s="24"/>
       <c r="Z32" s="25">
-        <v>43919.41875</v>
+        <v>43919.418749999997</v>
       </c>
       <c r="AA32" s="15" t="s">
         <v>46</v>
@@ -13906,7 +13302,7 @@
       <c r="AM32" s="24"/>
       <c r="AN32" s="24"/>
     </row>
-    <row r="33" s="12" customFormat="1" customHeight="1" spans="1:40">
+    <row r="33" spans="1:40" s="12" customFormat="1" ht="15" customHeight="1">
       <c r="A33" s="17">
         <v>32</v>
       </c>
@@ -13914,10 +13310,10 @@
         <v>50</v>
       </c>
       <c r="C33" s="18">
-        <v>43917</v>
+        <v>43918</v>
       </c>
       <c r="D33" s="18">
-        <v>43918</v>
+        <v>43919</v>
       </c>
       <c r="E33" s="15" t="s">
         <v>41</v>
@@ -13949,7 +13345,7 @@
         <v>43</v>
       </c>
       <c r="T33" s="20">
-        <v>43919.3465277778</v>
+        <v>43919.346527777801</v>
       </c>
       <c r="U33" s="21" t="s">
         <v>44</v>
@@ -13961,7 +13357,7 @@
       <c r="X33" s="24"/>
       <c r="Y33" s="24"/>
       <c r="Z33" s="25">
-        <v>43919.41875</v>
+        <v>43919.418749999997</v>
       </c>
       <c r="AA33" s="15" t="s">
         <v>46</v>
@@ -13982,7 +13378,7 @@
       <c r="AM33" s="24"/>
       <c r="AN33" s="24"/>
     </row>
-    <row r="34" s="12" customFormat="1" customHeight="1" spans="1:40">
+    <row r="34" spans="1:40" s="12" customFormat="1" ht="15" customHeight="1">
       <c r="A34" s="17">
         <v>33</v>
       </c>
@@ -13990,10 +13386,10 @@
         <v>50</v>
       </c>
       <c r="C34" s="18">
-        <v>43917</v>
+        <v>43918</v>
       </c>
       <c r="D34" s="18">
-        <v>43918</v>
+        <v>43919</v>
       </c>
       <c r="E34" s="15" t="s">
         <v>41</v>
@@ -14025,7 +13421,7 @@
         <v>43</v>
       </c>
       <c r="T34" s="20">
-        <v>43919.3465277778</v>
+        <v>43919.346527777801</v>
       </c>
       <c r="U34" s="21" t="s">
         <v>44</v>
@@ -14037,7 +13433,7 @@
       <c r="X34" s="24"/>
       <c r="Y34" s="24"/>
       <c r="Z34" s="25">
-        <v>43919.41875</v>
+        <v>43919.418749999997</v>
       </c>
       <c r="AA34" s="15" t="s">
         <v>46</v>
@@ -14058,7 +13454,7 @@
       <c r="AM34" s="24"/>
       <c r="AN34" s="24"/>
     </row>
-    <row r="35" s="12" customFormat="1" customHeight="1" spans="1:40">
+    <row r="35" spans="1:40" s="12" customFormat="1" ht="15" customHeight="1">
       <c r="A35" s="17">
         <v>34</v>
       </c>
@@ -14066,10 +13462,10 @@
         <v>50</v>
       </c>
       <c r="C35" s="18">
-        <v>43917</v>
+        <v>43918</v>
       </c>
       <c r="D35" s="18">
-        <v>43918</v>
+        <v>43919</v>
       </c>
       <c r="E35" s="15" t="s">
         <v>41</v>
@@ -14101,7 +13497,7 @@
         <v>43</v>
       </c>
       <c r="T35" s="20">
-        <v>43919.3465277778</v>
+        <v>43919.346527777801</v>
       </c>
       <c r="U35" s="21" t="s">
         <v>44</v>
@@ -14113,7 +13509,7 @@
       <c r="X35" s="24"/>
       <c r="Y35" s="24"/>
       <c r="Z35" s="25">
-        <v>43919.41875</v>
+        <v>43919.418749999997</v>
       </c>
       <c r="AA35" s="15" t="s">
         <v>46</v>
@@ -14134,7 +13530,7 @@
       <c r="AM35" s="24"/>
       <c r="AN35" s="24"/>
     </row>
-    <row r="36" s="12" customFormat="1" customHeight="1" spans="1:40">
+    <row r="36" spans="1:40" s="12" customFormat="1" ht="15" customHeight="1">
       <c r="A36" s="17">
         <v>35</v>
       </c>
@@ -14142,10 +13538,10 @@
         <v>50</v>
       </c>
       <c r="C36" s="18">
-        <v>43917</v>
+        <v>43918</v>
       </c>
       <c r="D36" s="18">
-        <v>43918</v>
+        <v>43919</v>
       </c>
       <c r="E36" s="15" t="s">
         <v>41</v>
@@ -14177,7 +13573,7 @@
         <v>43</v>
       </c>
       <c r="T36" s="20">
-        <v>43919.3465277778</v>
+        <v>43919.346527777801</v>
       </c>
       <c r="U36" s="21" t="s">
         <v>44</v>
@@ -14189,7 +13585,7 @@
       <c r="X36" s="24"/>
       <c r="Y36" s="24"/>
       <c r="Z36" s="25">
-        <v>43919.41875</v>
+        <v>43919.418749999997</v>
       </c>
       <c r="AA36" s="15" t="s">
         <v>46</v>
@@ -14210,7 +13606,7 @@
       <c r="AM36" s="24"/>
       <c r="AN36" s="24"/>
     </row>
-    <row r="37" s="12" customFormat="1" customHeight="1" spans="1:40">
+    <row r="37" spans="1:40" s="12" customFormat="1" ht="15" customHeight="1">
       <c r="A37" s="17">
         <v>36</v>
       </c>
@@ -14218,10 +13614,10 @@
         <v>50</v>
       </c>
       <c r="C37" s="18">
-        <v>43917</v>
+        <v>43918</v>
       </c>
       <c r="D37" s="18">
-        <v>43918</v>
+        <v>43919</v>
       </c>
       <c r="E37" s="15" t="s">
         <v>41</v>
@@ -14253,7 +13649,7 @@
         <v>43</v>
       </c>
       <c r="T37" s="20">
-        <v>43919.3465277778</v>
+        <v>43919.346527777801</v>
       </c>
       <c r="U37" s="21" t="s">
         <v>44</v>
@@ -14265,7 +13661,7 @@
       <c r="X37" s="24"/>
       <c r="Y37" s="24"/>
       <c r="Z37" s="25">
-        <v>43919.41875</v>
+        <v>43919.418749999997</v>
       </c>
       <c r="AA37" s="15" t="s">
         <v>46</v>
@@ -14286,7 +13682,7 @@
       <c r="AM37" s="24"/>
       <c r="AN37" s="24"/>
     </row>
-    <row r="38" s="12" customFormat="1" customHeight="1" spans="1:40">
+    <row r="38" spans="1:40" s="12" customFormat="1" ht="15" customHeight="1">
       <c r="A38" s="17">
         <v>37</v>
       </c>
@@ -14294,10 +13690,10 @@
         <v>50</v>
       </c>
       <c r="C38" s="18">
-        <v>43917</v>
+        <v>43918</v>
       </c>
       <c r="D38" s="18">
-        <v>43918</v>
+        <v>43919</v>
       </c>
       <c r="E38" s="15" t="s">
         <v>41</v>
@@ -14329,7 +13725,7 @@
         <v>43</v>
       </c>
       <c r="T38" s="20">
-        <v>43919.3465277778</v>
+        <v>43919.346527777801</v>
       </c>
       <c r="U38" s="21" t="s">
         <v>44</v>
@@ -14341,7 +13737,7 @@
       <c r="X38" s="24"/>
       <c r="Y38" s="24"/>
       <c r="Z38" s="25">
-        <v>43919.41875</v>
+        <v>43919.418749999997</v>
       </c>
       <c r="AA38" s="15" t="s">
         <v>46</v>
@@ -14362,7 +13758,7 @@
       <c r="AM38" s="24"/>
       <c r="AN38" s="24"/>
     </row>
-    <row r="39" s="12" customFormat="1" customHeight="1" spans="1:40">
+    <row r="39" spans="1:40" s="12" customFormat="1" ht="15" customHeight="1">
       <c r="A39" s="17">
         <v>38</v>
       </c>
@@ -14370,10 +13766,10 @@
         <v>50</v>
       </c>
       <c r="C39" s="18">
-        <v>43917</v>
+        <v>43918</v>
       </c>
       <c r="D39" s="18">
-        <v>43918</v>
+        <v>43919</v>
       </c>
       <c r="E39" s="15" t="s">
         <v>41</v>
@@ -14405,7 +13801,7 @@
         <v>43</v>
       </c>
       <c r="T39" s="20">
-        <v>43919.3465277778</v>
+        <v>43919.346527777801</v>
       </c>
       <c r="U39" s="21" t="s">
         <v>44</v>
@@ -14417,7 +13813,7 @@
       <c r="X39" s="24"/>
       <c r="Y39" s="24"/>
       <c r="Z39" s="25">
-        <v>43919.41875</v>
+        <v>43919.418749999997</v>
       </c>
       <c r="AA39" s="15" t="s">
         <v>46</v>
@@ -14438,7 +13834,7 @@
       <c r="AM39" s="24"/>
       <c r="AN39" s="24"/>
     </row>
-    <row r="40" s="12" customFormat="1" customHeight="1" spans="1:40">
+    <row r="40" spans="1:40" s="12" customFormat="1" ht="15" customHeight="1">
       <c r="A40" s="17">
         <v>39</v>
       </c>
@@ -14446,10 +13842,10 @@
         <v>48</v>
       </c>
       <c r="C40" s="18">
-        <v>43917</v>
+        <v>43918</v>
       </c>
       <c r="D40" s="18">
-        <v>43918</v>
+        <v>43919</v>
       </c>
       <c r="E40" s="15" t="s">
         <v>41</v>
@@ -14481,7 +13877,7 @@
         <v>43</v>
       </c>
       <c r="T40" s="20">
-        <v>43919.3465277778</v>
+        <v>43919.346527777801</v>
       </c>
       <c r="U40" s="21" t="s">
         <v>44</v>
@@ -14493,7 +13889,7 @@
       <c r="X40" s="24"/>
       <c r="Y40" s="24"/>
       <c r="Z40" s="25">
-        <v>43919.41875</v>
+        <v>43919.418749999997</v>
       </c>
       <c r="AA40" s="15" t="s">
         <v>46</v>
@@ -14514,7 +13910,7 @@
       <c r="AM40" s="24"/>
       <c r="AN40" s="24"/>
     </row>
-    <row r="41" s="12" customFormat="1" customHeight="1" spans="1:40">
+    <row r="41" spans="1:40" s="12" customFormat="1" ht="15" customHeight="1">
       <c r="A41" s="17">
         <v>40</v>
       </c>
@@ -14522,10 +13918,10 @@
         <v>50</v>
       </c>
       <c r="C41" s="18">
-        <v>43917</v>
+        <v>43918</v>
       </c>
       <c r="D41" s="18">
-        <v>43918</v>
+        <v>43919</v>
       </c>
       <c r="E41" s="15" t="s">
         <v>41</v>
@@ -14557,7 +13953,7 @@
         <v>43</v>
       </c>
       <c r="T41" s="20">
-        <v>43919.3465277778</v>
+        <v>43919.346527777801</v>
       </c>
       <c r="U41" s="21" t="s">
         <v>44</v>
@@ -14569,7 +13965,7 @@
       <c r="X41" s="24"/>
       <c r="Y41" s="24"/>
       <c r="Z41" s="25">
-        <v>43919.41875</v>
+        <v>43919.418749999997</v>
       </c>
       <c r="AA41" s="15" t="s">
         <v>46</v>
@@ -14590,7 +13986,7 @@
       <c r="AM41" s="24"/>
       <c r="AN41" s="24"/>
     </row>
-    <row r="42" s="12" customFormat="1" customHeight="1" spans="1:40">
+    <row r="42" spans="1:40" s="12" customFormat="1" ht="15" customHeight="1">
       <c r="A42" s="17">
         <v>41</v>
       </c>
@@ -14598,10 +13994,10 @@
         <v>50</v>
       </c>
       <c r="C42" s="18">
-        <v>43917</v>
+        <v>43918</v>
       </c>
       <c r="D42" s="18">
-        <v>43918</v>
+        <v>43919</v>
       </c>
       <c r="E42" s="15" t="s">
         <v>41</v>
@@ -14633,7 +14029,7 @@
         <v>43</v>
       </c>
       <c r="T42" s="20">
-        <v>43919.3465277778</v>
+        <v>43919.346527777801</v>
       </c>
       <c r="U42" s="21" t="s">
         <v>44</v>
@@ -14645,7 +14041,7 @@
       <c r="X42" s="24"/>
       <c r="Y42" s="24"/>
       <c r="Z42" s="25">
-        <v>43919.41875</v>
+        <v>43919.418749999997</v>
       </c>
       <c r="AA42" s="15" t="s">
         <v>46</v>
@@ -14666,7 +14062,7 @@
       <c r="AM42" s="24"/>
       <c r="AN42" s="24"/>
     </row>
-    <row r="43" s="12" customFormat="1" customHeight="1" spans="1:40">
+    <row r="43" spans="1:40" s="12" customFormat="1" ht="15" customHeight="1">
       <c r="A43" s="17">
         <v>42</v>
       </c>
@@ -14674,10 +14070,10 @@
         <v>50</v>
       </c>
       <c r="C43" s="18">
-        <v>43917</v>
+        <v>43918</v>
       </c>
       <c r="D43" s="18">
-        <v>43918</v>
+        <v>43919</v>
       </c>
       <c r="E43" s="15" t="s">
         <v>41</v>
@@ -14711,7 +14107,7 @@
         <v>43</v>
       </c>
       <c r="T43" s="20">
-        <v>43919.3465277778</v>
+        <v>43919.346527777801</v>
       </c>
       <c r="U43" s="21" t="s">
         <v>44</v>
@@ -14723,7 +14119,7 @@
       <c r="X43" s="24"/>
       <c r="Y43" s="24"/>
       <c r="Z43" s="25">
-        <v>43919.41875</v>
+        <v>43919.418749999997</v>
       </c>
       <c r="AA43" s="15" t="s">
         <v>46</v>
@@ -14744,7 +14140,7 @@
       <c r="AM43" s="24"/>
       <c r="AN43" s="24"/>
     </row>
-    <row r="44" s="12" customFormat="1" customHeight="1" spans="1:40">
+    <row r="44" spans="1:40" s="12" customFormat="1" ht="15" customHeight="1">
       <c r="A44" s="17">
         <v>43</v>
       </c>
@@ -14752,10 +14148,10 @@
         <v>50</v>
       </c>
       <c r="C44" s="18">
-        <v>43917</v>
+        <v>43918</v>
       </c>
       <c r="D44" s="18">
-        <v>43918</v>
+        <v>43919</v>
       </c>
       <c r="E44" s="15" t="s">
         <v>41</v>
@@ -14787,7 +14183,7 @@
         <v>43</v>
       </c>
       <c r="T44" s="20">
-        <v>43919.3465277778</v>
+        <v>43919.346527777801</v>
       </c>
       <c r="U44" s="21" t="s">
         <v>44</v>
@@ -14799,7 +14195,7 @@
       <c r="X44" s="24"/>
       <c r="Y44" s="24"/>
       <c r="Z44" s="25">
-        <v>43919.41875</v>
+        <v>43919.418749999997</v>
       </c>
       <c r="AA44" s="15" t="s">
         <v>46</v>
@@ -14820,7 +14216,7 @@
       <c r="AM44" s="24"/>
       <c r="AN44" s="24"/>
     </row>
-    <row r="45" s="12" customFormat="1" customHeight="1" spans="1:40">
+    <row r="45" spans="1:40" s="12" customFormat="1" ht="15" customHeight="1">
       <c r="A45" s="17">
         <v>44</v>
       </c>
@@ -14828,10 +14224,10 @@
         <v>50</v>
       </c>
       <c r="C45" s="18">
-        <v>43917</v>
+        <v>43918</v>
       </c>
       <c r="D45" s="18">
-        <v>43918</v>
+        <v>43919</v>
       </c>
       <c r="E45" s="15" t="s">
         <v>41</v>
@@ -14863,7 +14259,7 @@
         <v>43</v>
       </c>
       <c r="T45" s="20">
-        <v>43919.3465277778</v>
+        <v>43919.346527777801</v>
       </c>
       <c r="U45" s="21" t="s">
         <v>44</v>
@@ -14875,7 +14271,7 @@
       <c r="X45" s="24"/>
       <c r="Y45" s="24"/>
       <c r="Z45" s="25">
-        <v>43919.41875</v>
+        <v>43919.418749999997</v>
       </c>
       <c r="AA45" s="15" t="s">
         <v>46</v>
@@ -14896,7 +14292,7 @@
       <c r="AM45" s="24"/>
       <c r="AN45" s="24"/>
     </row>
-    <row r="46" s="12" customFormat="1" customHeight="1" spans="1:40">
+    <row r="46" spans="1:40" s="12" customFormat="1" ht="15" customHeight="1">
       <c r="A46" s="17">
         <v>45</v>
       </c>
@@ -14904,10 +14300,10 @@
         <v>50</v>
       </c>
       <c r="C46" s="18">
-        <v>43917</v>
+        <v>43918</v>
       </c>
       <c r="D46" s="18">
-        <v>43918</v>
+        <v>43919</v>
       </c>
       <c r="E46" s="15" t="s">
         <v>41</v>
@@ -14939,7 +14335,7 @@
         <v>43</v>
       </c>
       <c r="T46" s="20">
-        <v>43919.3465277778</v>
+        <v>43919.346527777801</v>
       </c>
       <c r="U46" s="21" t="s">
         <v>44</v>
@@ -14951,7 +14347,7 @@
       <c r="X46" s="24"/>
       <c r="Y46" s="24"/>
       <c r="Z46" s="25">
-        <v>43919.41875</v>
+        <v>43919.418749999997</v>
       </c>
       <c r="AA46" s="15" t="s">
         <v>46</v>
@@ -14972,7 +14368,7 @@
       <c r="AM46" s="24"/>
       <c r="AN46" s="24"/>
     </row>
-    <row r="47" s="12" customFormat="1" customHeight="1" spans="1:40">
+    <row r="47" spans="1:40" s="12" customFormat="1" ht="15" customHeight="1">
       <c r="A47" s="17">
         <v>46</v>
       </c>
@@ -14980,10 +14376,10 @@
         <v>50</v>
       </c>
       <c r="C47" s="18">
-        <v>43917</v>
+        <v>43918</v>
       </c>
       <c r="D47" s="18">
-        <v>43918</v>
+        <v>43919</v>
       </c>
       <c r="E47" s="15" t="s">
         <v>41</v>
@@ -15015,7 +14411,7 @@
         <v>43</v>
       </c>
       <c r="T47" s="20">
-        <v>43919.3465277778</v>
+        <v>43919.346527777801</v>
       </c>
       <c r="U47" s="21" t="s">
         <v>44</v>
@@ -15027,7 +14423,7 @@
       <c r="X47" s="24"/>
       <c r="Y47" s="24"/>
       <c r="Z47" s="25">
-        <v>43919.41875</v>
+        <v>43919.418749999997</v>
       </c>
       <c r="AA47" s="15" t="s">
         <v>46</v>
@@ -15048,7 +14444,7 @@
       <c r="AM47" s="24"/>
       <c r="AN47" s="24"/>
     </row>
-    <row r="48" s="12" customFormat="1" customHeight="1" spans="1:40">
+    <row r="48" spans="1:40" s="12" customFormat="1" ht="15" customHeight="1">
       <c r="A48" s="17">
         <v>47</v>
       </c>
@@ -15056,10 +14452,10 @@
         <v>50</v>
       </c>
       <c r="C48" s="18">
-        <v>43917</v>
+        <v>43918</v>
       </c>
       <c r="D48" s="18">
-        <v>43918</v>
+        <v>43919</v>
       </c>
       <c r="E48" s="15" t="s">
         <v>41</v>
@@ -15091,7 +14487,7 @@
         <v>43</v>
       </c>
       <c r="T48" s="20">
-        <v>43919.3465277778</v>
+        <v>43919.346527777801</v>
       </c>
       <c r="U48" s="21" t="s">
         <v>44</v>
@@ -15103,7 +14499,7 @@
       <c r="X48" s="24"/>
       <c r="Y48" s="24"/>
       <c r="Z48" s="25">
-        <v>43919.41875</v>
+        <v>43919.418749999997</v>
       </c>
       <c r="AA48" s="15" t="s">
         <v>46</v>
@@ -15124,7 +14520,7 @@
       <c r="AM48" s="24"/>
       <c r="AN48" s="24"/>
     </row>
-    <row r="49" s="12" customFormat="1" customHeight="1" spans="1:40">
+    <row r="49" spans="1:40" s="12" customFormat="1" ht="15" customHeight="1">
       <c r="A49" s="17">
         <v>48</v>
       </c>
@@ -15132,10 +14528,10 @@
         <v>50</v>
       </c>
       <c r="C49" s="18">
-        <v>43917</v>
+        <v>43918</v>
       </c>
       <c r="D49" s="18">
-        <v>43918</v>
+        <v>43919</v>
       </c>
       <c r="E49" s="15" t="s">
         <v>41</v>
@@ -15167,7 +14563,7 @@
         <v>43</v>
       </c>
       <c r="T49" s="20">
-        <v>43919.3465277778</v>
+        <v>43919.346527777801</v>
       </c>
       <c r="U49" s="21" t="s">
         <v>44</v>
@@ -15179,7 +14575,7 @@
       <c r="X49" s="24"/>
       <c r="Y49" s="24"/>
       <c r="Z49" s="25">
-        <v>43919.41875</v>
+        <v>43919.418749999997</v>
       </c>
       <c r="AA49" s="15" t="s">
         <v>46</v>
@@ -15200,7 +14596,7 @@
       <c r="AM49" s="24"/>
       <c r="AN49" s="24"/>
     </row>
-    <row r="50" s="12" customFormat="1" customHeight="1" spans="1:40">
+    <row r="50" spans="1:40" s="12" customFormat="1" ht="15" customHeight="1">
       <c r="A50" s="17">
         <v>49</v>
       </c>
@@ -15208,10 +14604,10 @@
         <v>50</v>
       </c>
       <c r="C50" s="18">
-        <v>43917</v>
+        <v>43918</v>
       </c>
       <c r="D50" s="18">
-        <v>43918</v>
+        <v>43919</v>
       </c>
       <c r="E50" s="15" t="s">
         <v>41</v>
@@ -15243,7 +14639,7 @@
         <v>43</v>
       </c>
       <c r="T50" s="20">
-        <v>43919.3465277778</v>
+        <v>43919.346527777801</v>
       </c>
       <c r="U50" s="21" t="s">
         <v>44</v>
@@ -15255,7 +14651,7 @@
       <c r="X50" s="24"/>
       <c r="Y50" s="24"/>
       <c r="Z50" s="25">
-        <v>43919.41875</v>
+        <v>43919.418749999997</v>
       </c>
       <c r="AA50" s="15" t="s">
         <v>46</v>
@@ -15276,7 +14672,7 @@
       <c r="AM50" s="24"/>
       <c r="AN50" s="24"/>
     </row>
-    <row r="51" s="12" customFormat="1" customHeight="1" spans="1:40">
+    <row r="51" spans="1:40" s="12" customFormat="1" ht="15" customHeight="1">
       <c r="A51" s="17">
         <v>50</v>
       </c>
@@ -15284,10 +14680,10 @@
         <v>50</v>
       </c>
       <c r="C51" s="18">
-        <v>43917</v>
+        <v>43918</v>
       </c>
       <c r="D51" s="18">
-        <v>43918</v>
+        <v>43919</v>
       </c>
       <c r="E51" s="15" t="s">
         <v>41</v>
@@ -15319,7 +14715,7 @@
         <v>43</v>
       </c>
       <c r="T51" s="20">
-        <v>43919.3465277778</v>
+        <v>43919.346527777801</v>
       </c>
       <c r="U51" s="21" t="s">
         <v>44</v>
@@ -15331,7 +14727,7 @@
       <c r="X51" s="24"/>
       <c r="Y51" s="24"/>
       <c r="Z51" s="25">
-        <v>43919.41875</v>
+        <v>43919.418749999997</v>
       </c>
       <c r="AA51" s="15" t="s">
         <v>46</v>
@@ -15352,7 +14748,7 @@
       <c r="AM51" s="24"/>
       <c r="AN51" s="24"/>
     </row>
-    <row r="52" s="12" customFormat="1" customHeight="1" spans="1:40">
+    <row r="52" spans="1:40" s="12" customFormat="1" ht="15" customHeight="1">
       <c r="A52" s="17">
         <v>51</v>
       </c>
@@ -15360,10 +14756,10 @@
         <v>48</v>
       </c>
       <c r="C52" s="18">
-        <v>43917</v>
+        <v>43918</v>
       </c>
       <c r="D52" s="18">
-        <v>43918</v>
+        <v>43919</v>
       </c>
       <c r="E52" s="15" t="s">
         <v>41</v>
@@ -15393,7 +14789,7 @@
         <v>43</v>
       </c>
       <c r="T52" s="20">
-        <v>43919.3465277778</v>
+        <v>43919.346527777801</v>
       </c>
       <c r="U52" s="21" t="s">
         <v>44</v>
@@ -15405,7 +14801,7 @@
       <c r="X52" s="24"/>
       <c r="Y52" s="24"/>
       <c r="Z52" s="25">
-        <v>43919.41875</v>
+        <v>43919.418749999997</v>
       </c>
       <c r="AA52" s="15" t="s">
         <v>46</v>
@@ -15426,7 +14822,7 @@
       <c r="AM52" s="24"/>
       <c r="AN52" s="24"/>
     </row>
-    <row r="53" s="12" customFormat="1" customHeight="1" spans="1:40">
+    <row r="53" spans="1:40" s="12" customFormat="1" ht="15" customHeight="1">
       <c r="A53" s="17">
         <v>52</v>
       </c>
@@ -15434,10 +14830,10 @@
         <v>50</v>
       </c>
       <c r="C53" s="18">
-        <v>43917</v>
+        <v>43918</v>
       </c>
       <c r="D53" s="18">
-        <v>43918</v>
+        <v>43919</v>
       </c>
       <c r="E53" s="15" t="s">
         <v>41</v>
@@ -15469,7 +14865,7 @@
         <v>43</v>
       </c>
       <c r="T53" s="20">
-        <v>43919.3465277778</v>
+        <v>43919.346527777801</v>
       </c>
       <c r="U53" s="21" t="s">
         <v>44</v>
@@ -15481,7 +14877,7 @@
       <c r="X53" s="24"/>
       <c r="Y53" s="24"/>
       <c r="Z53" s="25">
-        <v>43919.41875</v>
+        <v>43919.418749999997</v>
       </c>
       <c r="AA53" s="15" t="s">
         <v>46</v>
@@ -15502,7 +14898,7 @@
       <c r="AM53" s="24"/>
       <c r="AN53" s="24"/>
     </row>
-    <row r="54" s="12" customFormat="1" customHeight="1" spans="1:40">
+    <row r="54" spans="1:40" s="12" customFormat="1" ht="15" customHeight="1">
       <c r="A54" s="17">
         <v>53</v>
       </c>
@@ -15510,10 +14906,10 @@
         <v>50</v>
       </c>
       <c r="C54" s="18">
-        <v>43917</v>
+        <v>43918</v>
       </c>
       <c r="D54" s="18">
-        <v>43918</v>
+        <v>43919</v>
       </c>
       <c r="E54" s="15" t="s">
         <v>41</v>
@@ -15545,7 +14941,7 @@
         <v>43</v>
       </c>
       <c r="T54" s="20">
-        <v>43919.3465277778</v>
+        <v>43919.346527777801</v>
       </c>
       <c r="U54" s="21" t="s">
         <v>44</v>
@@ -15557,7 +14953,7 @@
       <c r="X54" s="24"/>
       <c r="Y54" s="24"/>
       <c r="Z54" s="25">
-        <v>43919.41875</v>
+        <v>43919.418749999997</v>
       </c>
       <c r="AA54" s="15" t="s">
         <v>46</v>
@@ -15578,7 +14974,7 @@
       <c r="AM54" s="24"/>
       <c r="AN54" s="24"/>
     </row>
-    <row r="55" s="12" customFormat="1" customHeight="1" spans="1:40">
+    <row r="55" spans="1:40" s="12" customFormat="1" ht="15" customHeight="1">
       <c r="A55" s="17">
         <v>54</v>
       </c>
@@ -15586,10 +14982,10 @@
         <v>50</v>
       </c>
       <c r="C55" s="18">
-        <v>43917</v>
+        <v>43918</v>
       </c>
       <c r="D55" s="18">
-        <v>43918</v>
+        <v>43919</v>
       </c>
       <c r="E55" s="15" t="s">
         <v>41</v>
@@ -15621,7 +15017,7 @@
         <v>43</v>
       </c>
       <c r="T55" s="20">
-        <v>43919.3465277778</v>
+        <v>43919.346527777801</v>
       </c>
       <c r="U55" s="21" t="s">
         <v>44</v>
@@ -15633,7 +15029,7 @@
       <c r="X55" s="24"/>
       <c r="Y55" s="24"/>
       <c r="Z55" s="25">
-        <v>43919.41875</v>
+        <v>43919.418749999997</v>
       </c>
       <c r="AA55" s="15" t="s">
         <v>46</v>
@@ -15654,7 +15050,7 @@
       <c r="AM55" s="24"/>
       <c r="AN55" s="24"/>
     </row>
-    <row r="56" s="12" customFormat="1" customHeight="1" spans="1:40">
+    <row r="56" spans="1:40" s="12" customFormat="1" ht="15" customHeight="1">
       <c r="A56" s="17">
         <v>55</v>
       </c>
@@ -15662,10 +15058,10 @@
         <v>50</v>
       </c>
       <c r="C56" s="18">
-        <v>43917</v>
+        <v>43918</v>
       </c>
       <c r="D56" s="18">
-        <v>43918</v>
+        <v>43919</v>
       </c>
       <c r="E56" s="15" t="s">
         <v>41</v>
@@ -15697,7 +15093,7 @@
         <v>43</v>
       </c>
       <c r="T56" s="20">
-        <v>43919.3465277778</v>
+        <v>43919.346527777801</v>
       </c>
       <c r="U56" s="21" t="s">
         <v>44</v>
@@ -15709,7 +15105,7 @@
       <c r="X56" s="24"/>
       <c r="Y56" s="24"/>
       <c r="Z56" s="25">
-        <v>43919.41875</v>
+        <v>43919.418749999997</v>
       </c>
       <c r="AA56" s="15" t="s">
         <v>46</v>
@@ -15730,7 +15126,7 @@
       <c r="AM56" s="24"/>
       <c r="AN56" s="24"/>
     </row>
-    <row r="57" s="12" customFormat="1" customHeight="1" spans="1:40">
+    <row r="57" spans="1:40" s="12" customFormat="1" ht="15" customHeight="1">
       <c r="A57" s="17">
         <v>56</v>
       </c>
@@ -15738,10 +15134,10 @@
         <v>50</v>
       </c>
       <c r="C57" s="18">
-        <v>43917</v>
+        <v>43918</v>
       </c>
       <c r="D57" s="18">
-        <v>43918</v>
+        <v>43919</v>
       </c>
       <c r="E57" s="15" t="s">
         <v>41</v>
@@ -15773,7 +15169,7 @@
         <v>43</v>
       </c>
       <c r="T57" s="20">
-        <v>43919.3465277778</v>
+        <v>43919.346527777801</v>
       </c>
       <c r="U57" s="21" t="s">
         <v>44</v>
@@ -15785,7 +15181,7 @@
       <c r="X57" s="24"/>
       <c r="Y57" s="24"/>
       <c r="Z57" s="25">
-        <v>43919.41875</v>
+        <v>43919.418749999997</v>
       </c>
       <c r="AA57" s="15" t="s">
         <v>46</v>
@@ -15806,7 +15202,7 @@
       <c r="AM57" s="24"/>
       <c r="AN57" s="24"/>
     </row>
-    <row r="58" s="12" customFormat="1" customHeight="1" spans="1:40">
+    <row r="58" spans="1:40" s="12" customFormat="1" ht="15" customHeight="1">
       <c r="A58" s="17">
         <v>57</v>
       </c>
@@ -15814,10 +15210,10 @@
         <v>50</v>
       </c>
       <c r="C58" s="18">
-        <v>43917</v>
+        <v>43918</v>
       </c>
       <c r="D58" s="18">
-        <v>43918</v>
+        <v>43919</v>
       </c>
       <c r="E58" s="15" t="s">
         <v>41</v>
@@ -15849,7 +15245,7 @@
         <v>43</v>
       </c>
       <c r="T58" s="20">
-        <v>43919.3465277778</v>
+        <v>43919.346527777801</v>
       </c>
       <c r="U58" s="21" t="s">
         <v>44</v>
@@ -15861,7 +15257,7 @@
       <c r="X58" s="24"/>
       <c r="Y58" s="24"/>
       <c r="Z58" s="25">
-        <v>43919.41875</v>
+        <v>43919.418749999997</v>
       </c>
       <c r="AA58" s="15" t="s">
         <v>46</v>
@@ -15882,7 +15278,7 @@
       <c r="AM58" s="24"/>
       <c r="AN58" s="24"/>
     </row>
-    <row r="59" s="12" customFormat="1" customHeight="1" spans="1:40">
+    <row r="59" spans="1:40" s="12" customFormat="1" ht="15" customHeight="1">
       <c r="A59" s="17">
         <v>58</v>
       </c>
@@ -15890,10 +15286,10 @@
         <v>48</v>
       </c>
       <c r="C59" s="18">
-        <v>43917</v>
+        <v>43918</v>
       </c>
       <c r="D59" s="18">
-        <v>43918</v>
+        <v>43919</v>
       </c>
       <c r="E59" s="15" t="s">
         <v>41</v>
@@ -15923,7 +15319,7 @@
         <v>43</v>
       </c>
       <c r="T59" s="20">
-        <v>43919.3465277778</v>
+        <v>43919.346527777801</v>
       </c>
       <c r="U59" s="21" t="s">
         <v>44</v>
@@ -15935,7 +15331,7 @@
       <c r="X59" s="24"/>
       <c r="Y59" s="24"/>
       <c r="Z59" s="25">
-        <v>43919.41875</v>
+        <v>43919.418749999997</v>
       </c>
       <c r="AA59" s="15" t="s">
         <v>46</v>
@@ -15956,7 +15352,7 @@
       <c r="AM59" s="24"/>
       <c r="AN59" s="24"/>
     </row>
-    <row r="60" s="12" customFormat="1" customHeight="1" spans="1:40">
+    <row r="60" spans="1:40" s="12" customFormat="1" ht="15" customHeight="1">
       <c r="A60" s="17">
         <v>59</v>
       </c>
@@ -15964,10 +15360,10 @@
         <v>50</v>
       </c>
       <c r="C60" s="18">
-        <v>43917</v>
+        <v>43918</v>
       </c>
       <c r="D60" s="18">
-        <v>43918</v>
+        <v>43919</v>
       </c>
       <c r="E60" s="15" t="s">
         <v>41</v>
@@ -15999,7 +15395,7 @@
         <v>43</v>
       </c>
       <c r="T60" s="20">
-        <v>43919.3465277778</v>
+        <v>43919.346527777801</v>
       </c>
       <c r="U60" s="21" t="s">
         <v>44</v>
@@ -16011,7 +15407,7 @@
       <c r="X60" s="24"/>
       <c r="Y60" s="24"/>
       <c r="Z60" s="25">
-        <v>43919.41875</v>
+        <v>43919.418749999997</v>
       </c>
       <c r="AA60" s="15" t="s">
         <v>46</v>
@@ -16032,7 +15428,7 @@
       <c r="AM60" s="24"/>
       <c r="AN60" s="24"/>
     </row>
-    <row r="61" s="12" customFormat="1" customHeight="1" spans="1:40">
+    <row r="61" spans="1:40" s="12" customFormat="1" ht="15" customHeight="1">
       <c r="A61" s="17">
         <v>60</v>
       </c>
@@ -16040,10 +15436,10 @@
         <v>50</v>
       </c>
       <c r="C61" s="18">
-        <v>43917</v>
+        <v>43918</v>
       </c>
       <c r="D61" s="18">
-        <v>43918</v>
+        <v>43919</v>
       </c>
       <c r="E61" s="15" t="s">
         <v>41</v>
@@ -16075,7 +15471,7 @@
         <v>43</v>
       </c>
       <c r="T61" s="20">
-        <v>43919.3465277778</v>
+        <v>43919.346527777801</v>
       </c>
       <c r="U61" s="21" t="s">
         <v>44</v>
@@ -16087,7 +15483,7 @@
       <c r="X61" s="24"/>
       <c r="Y61" s="24"/>
       <c r="Z61" s="25">
-        <v>43919.41875</v>
+        <v>43919.418749999997</v>
       </c>
       <c r="AA61" s="15" t="s">
         <v>46</v>
@@ -16108,7 +15504,7 @@
       <c r="AM61" s="24"/>
       <c r="AN61" s="24"/>
     </row>
-    <row r="62" s="12" customFormat="1" customHeight="1" spans="1:40">
+    <row r="62" spans="1:40" s="12" customFormat="1" ht="15" customHeight="1">
       <c r="A62" s="17">
         <v>61</v>
       </c>
@@ -16116,10 +15512,10 @@
         <v>50</v>
       </c>
       <c r="C62" s="18">
-        <v>43917</v>
+        <v>43918</v>
       </c>
       <c r="D62" s="18">
-        <v>43918</v>
+        <v>43919</v>
       </c>
       <c r="E62" s="15" t="s">
         <v>41</v>
@@ -16151,7 +15547,7 @@
         <v>43</v>
       </c>
       <c r="T62" s="20">
-        <v>43919.3465277778</v>
+        <v>43919.346527777801</v>
       </c>
       <c r="U62" s="21" t="s">
         <v>44</v>
@@ -16163,7 +15559,7 @@
       <c r="X62" s="24"/>
       <c r="Y62" s="24"/>
       <c r="Z62" s="25">
-        <v>43919.41875</v>
+        <v>43919.418749999997</v>
       </c>
       <c r="AA62" s="15" t="s">
         <v>46</v>
@@ -16184,7 +15580,7 @@
       <c r="AM62" s="24"/>
       <c r="AN62" s="24"/>
     </row>
-    <row r="63" s="12" customFormat="1" customHeight="1" spans="1:40">
+    <row r="63" spans="1:40" s="12" customFormat="1" ht="15" customHeight="1">
       <c r="A63" s="17">
         <v>62</v>
       </c>
@@ -16192,10 +15588,10 @@
         <v>50</v>
       </c>
       <c r="C63" s="18">
-        <v>43917</v>
+        <v>43918</v>
       </c>
       <c r="D63" s="18">
-        <v>43918</v>
+        <v>43919</v>
       </c>
       <c r="E63" s="15" t="s">
         <v>41</v>
@@ -16227,7 +15623,7 @@
         <v>43</v>
       </c>
       <c r="T63" s="20">
-        <v>43919.3465277778</v>
+        <v>43919.346527777801</v>
       </c>
       <c r="U63" s="21" t="s">
         <v>44</v>
@@ -16239,7 +15635,7 @@
       <c r="X63" s="24"/>
       <c r="Y63" s="24"/>
       <c r="Z63" s="25">
-        <v>43919.41875</v>
+        <v>43919.418749999997</v>
       </c>
       <c r="AA63" s="15" t="s">
         <v>46</v>
@@ -16260,7 +15656,7 @@
       <c r="AM63" s="24"/>
       <c r="AN63" s="24"/>
     </row>
-    <row r="64" s="12" customFormat="1" customHeight="1" spans="1:40">
+    <row r="64" spans="1:40" s="12" customFormat="1" ht="15" customHeight="1">
       <c r="A64" s="17">
         <v>63</v>
       </c>
@@ -16268,10 +15664,10 @@
         <v>50</v>
       </c>
       <c r="C64" s="18">
-        <v>43917</v>
+        <v>43918</v>
       </c>
       <c r="D64" s="18">
-        <v>43918</v>
+        <v>43919</v>
       </c>
       <c r="E64" s="15" t="s">
         <v>41</v>
@@ -16303,7 +15699,7 @@
         <v>43</v>
       </c>
       <c r="T64" s="20">
-        <v>43919.3465277778</v>
+        <v>43919.346527777801</v>
       </c>
       <c r="U64" s="21" t="s">
         <v>44</v>
@@ -16315,7 +15711,7 @@
       <c r="X64" s="24"/>
       <c r="Y64" s="24"/>
       <c r="Z64" s="25">
-        <v>43919.41875</v>
+        <v>43919.418749999997</v>
       </c>
       <c r="AA64" s="15" t="s">
         <v>46</v>
@@ -16336,7 +15732,7 @@
       <c r="AM64" s="24"/>
       <c r="AN64" s="24"/>
     </row>
-    <row r="65" s="12" customFormat="1" customHeight="1" spans="1:40">
+    <row r="65" spans="1:40" s="12" customFormat="1" ht="15" customHeight="1">
       <c r="A65" s="17">
         <v>64</v>
       </c>
@@ -16344,10 +15740,10 @@
         <v>50</v>
       </c>
       <c r="C65" s="18">
-        <v>43917</v>
+        <v>43918</v>
       </c>
       <c r="D65" s="18">
-        <v>43918</v>
+        <v>43919</v>
       </c>
       <c r="E65" s="15" t="s">
         <v>41</v>
@@ -16379,7 +15775,7 @@
         <v>43</v>
       </c>
       <c r="T65" s="20">
-        <v>43919.3465277778</v>
+        <v>43919.346527777801</v>
       </c>
       <c r="U65" s="21" t="s">
         <v>44</v>
@@ -16391,7 +15787,7 @@
       <c r="X65" s="24"/>
       <c r="Y65" s="24"/>
       <c r="Z65" s="25">
-        <v>43919.41875</v>
+        <v>43919.418749999997</v>
       </c>
       <c r="AA65" s="15" t="s">
         <v>46</v>
@@ -16412,7 +15808,7 @@
       <c r="AM65" s="24"/>
       <c r="AN65" s="24"/>
     </row>
-    <row r="66" s="12" customFormat="1" customHeight="1" spans="1:40">
+    <row r="66" spans="1:40" s="12" customFormat="1" ht="15" customHeight="1">
       <c r="A66" s="17">
         <v>65</v>
       </c>
@@ -16420,10 +15816,10 @@
         <v>48</v>
       </c>
       <c r="C66" s="18">
-        <v>43917</v>
+        <v>43918</v>
       </c>
       <c r="D66" s="18">
-        <v>43918</v>
+        <v>43919</v>
       </c>
       <c r="E66" s="15" t="s">
         <v>41</v>
@@ -16453,7 +15849,7 @@
         <v>43</v>
       </c>
       <c r="T66" s="20">
-        <v>43919.3465277778</v>
+        <v>43919.346527777801</v>
       </c>
       <c r="U66" s="21" t="s">
         <v>44</v>
@@ -16465,7 +15861,7 @@
       <c r="X66" s="24"/>
       <c r="Y66" s="24"/>
       <c r="Z66" s="25">
-        <v>43919.41875</v>
+        <v>43919.418749999997</v>
       </c>
       <c r="AA66" s="15" t="s">
         <v>46</v>
@@ -16486,7 +15882,7 @@
       <c r="AM66" s="24"/>
       <c r="AN66" s="24"/>
     </row>
-    <row r="67" s="12" customFormat="1" customHeight="1" spans="1:40">
+    <row r="67" spans="1:40" s="12" customFormat="1" ht="15" customHeight="1">
       <c r="A67" s="17">
         <v>66</v>
       </c>
@@ -16494,10 +15890,10 @@
         <v>50</v>
       </c>
       <c r="C67" s="18">
-        <v>43917</v>
+        <v>43918</v>
       </c>
       <c r="D67" s="18">
-        <v>43918</v>
+        <v>43919</v>
       </c>
       <c r="E67" s="15" t="s">
         <v>41</v>
@@ -16529,7 +15925,7 @@
         <v>43</v>
       </c>
       <c r="T67" s="20">
-        <v>43919.3465277778</v>
+        <v>43919.346527777801</v>
       </c>
       <c r="U67" s="21" t="s">
         <v>44</v>
@@ -16541,7 +15937,7 @@
       <c r="X67" s="24"/>
       <c r="Y67" s="24"/>
       <c r="Z67" s="25">
-        <v>43919.41875</v>
+        <v>43919.418749999997</v>
       </c>
       <c r="AA67" s="15" t="s">
         <v>46</v>
@@ -16562,7 +15958,7 @@
       <c r="AM67" s="24"/>
       <c r="AN67" s="24"/>
     </row>
-    <row r="68" s="12" customFormat="1" customHeight="1" spans="1:40">
+    <row r="68" spans="1:40" s="12" customFormat="1" ht="15" customHeight="1">
       <c r="A68" s="17">
         <v>67</v>
       </c>
@@ -16570,10 +15966,10 @@
         <v>50</v>
       </c>
       <c r="C68" s="18">
-        <v>43917</v>
+        <v>43918</v>
       </c>
       <c r="D68" s="18">
-        <v>43918</v>
+        <v>43919</v>
       </c>
       <c r="E68" s="15" t="s">
         <v>41</v>
@@ -16605,7 +16001,7 @@
         <v>43</v>
       </c>
       <c r="T68" s="20">
-        <v>43919.3465277778</v>
+        <v>43919.346527777801</v>
       </c>
       <c r="U68" s="21" t="s">
         <v>44</v>
@@ -16617,7 +16013,7 @@
       <c r="X68" s="24"/>
       <c r="Y68" s="24"/>
       <c r="Z68" s="25">
-        <v>43919.41875</v>
+        <v>43919.418749999997</v>
       </c>
       <c r="AA68" s="15" t="s">
         <v>46</v>
@@ -16638,7 +16034,7 @@
       <c r="AM68" s="24"/>
       <c r="AN68" s="24"/>
     </row>
-    <row r="69" s="12" customFormat="1" customHeight="1" spans="1:40">
+    <row r="69" spans="1:40" s="12" customFormat="1" ht="15" customHeight="1">
       <c r="A69" s="17">
         <v>68</v>
       </c>
@@ -16646,10 +16042,10 @@
         <v>50</v>
       </c>
       <c r="C69" s="18">
-        <v>43917</v>
+        <v>43918</v>
       </c>
       <c r="D69" s="18">
-        <v>43918</v>
+        <v>43919</v>
       </c>
       <c r="E69" s="15" t="s">
         <v>41</v>
@@ -16681,7 +16077,7 @@
         <v>43</v>
       </c>
       <c r="T69" s="20">
-        <v>43919.3465277778</v>
+        <v>43919.346527777801</v>
       </c>
       <c r="U69" s="21" t="s">
         <v>44</v>
@@ -16693,7 +16089,7 @@
       <c r="X69" s="24"/>
       <c r="Y69" s="24"/>
       <c r="Z69" s="25">
-        <v>43919.41875</v>
+        <v>43919.418749999997</v>
       </c>
       <c r="AA69" s="15" t="s">
         <v>46</v>
@@ -16714,7 +16110,7 @@
       <c r="AM69" s="24"/>
       <c r="AN69" s="24"/>
     </row>
-    <row r="70" s="12" customFormat="1" customHeight="1" spans="1:40">
+    <row r="70" spans="1:40" s="12" customFormat="1" ht="15" customHeight="1">
       <c r="A70" s="17">
         <v>69</v>
       </c>
@@ -16722,10 +16118,10 @@
         <v>50</v>
       </c>
       <c r="C70" s="18">
-        <v>43917</v>
+        <v>43918</v>
       </c>
       <c r="D70" s="18">
-        <v>43918</v>
+        <v>43919</v>
       </c>
       <c r="E70" s="15" t="s">
         <v>41</v>
@@ -16757,7 +16153,7 @@
         <v>43</v>
       </c>
       <c r="T70" s="20">
-        <v>43919.3465277778</v>
+        <v>43919.346527777801</v>
       </c>
       <c r="U70" s="21" t="s">
         <v>44</v>
@@ -16769,7 +16165,7 @@
       <c r="X70" s="24"/>
       <c r="Y70" s="24"/>
       <c r="Z70" s="25">
-        <v>43919.41875</v>
+        <v>43919.418749999997</v>
       </c>
       <c r="AA70" s="15" t="s">
         <v>46</v>
@@ -16790,7 +16186,7 @@
       <c r="AM70" s="24"/>
       <c r="AN70" s="24"/>
     </row>
-    <row r="71" s="12" customFormat="1" customHeight="1" spans="1:40">
+    <row r="71" spans="1:40" s="12" customFormat="1" ht="15" customHeight="1">
       <c r="A71" s="17">
         <v>70</v>
       </c>
@@ -16798,10 +16194,10 @@
         <v>50</v>
       </c>
       <c r="C71" s="18">
-        <v>43917</v>
+        <v>43918</v>
       </c>
       <c r="D71" s="18">
-        <v>43918</v>
+        <v>43919</v>
       </c>
       <c r="E71" s="15" t="s">
         <v>41</v>
@@ -16833,7 +16229,7 @@
         <v>43</v>
       </c>
       <c r="T71" s="20">
-        <v>43919.3465277778</v>
+        <v>43919.346527777801</v>
       </c>
       <c r="U71" s="21" t="s">
         <v>44</v>
@@ -16845,7 +16241,7 @@
       <c r="X71" s="24"/>
       <c r="Y71" s="24"/>
       <c r="Z71" s="25">
-        <v>43919.41875</v>
+        <v>43919.418749999997</v>
       </c>
       <c r="AA71" s="15" t="s">
         <v>46</v>
@@ -16866,7 +16262,7 @@
       <c r="AM71" s="24"/>
       <c r="AN71" s="24"/>
     </row>
-    <row r="72" s="12" customFormat="1" customHeight="1" spans="1:40">
+    <row r="72" spans="1:40" s="12" customFormat="1" ht="15" customHeight="1">
       <c r="A72" s="17">
         <v>71</v>
       </c>
@@ -16874,10 +16270,10 @@
         <v>50</v>
       </c>
       <c r="C72" s="18">
-        <v>43917</v>
+        <v>43918</v>
       </c>
       <c r="D72" s="18">
-        <v>43918</v>
+        <v>43919</v>
       </c>
       <c r="E72" s="15" t="s">
         <v>41</v>
@@ -16909,7 +16305,7 @@
         <v>43</v>
       </c>
       <c r="T72" s="20">
-        <v>43919.3465277778</v>
+        <v>43919.346527777801</v>
       </c>
       <c r="U72" s="21" t="s">
         <v>44</v>
@@ -16921,7 +16317,7 @@
       <c r="X72" s="24"/>
       <c r="Y72" s="24"/>
       <c r="Z72" s="25">
-        <v>43919.41875</v>
+        <v>43919.418749999997</v>
       </c>
       <c r="AA72" s="15" t="s">
         <v>46</v>
@@ -16942,7 +16338,7 @@
       <c r="AM72" s="24"/>
       <c r="AN72" s="24"/>
     </row>
-    <row r="73" s="12" customFormat="1" customHeight="1" spans="1:40">
+    <row r="73" spans="1:40" s="12" customFormat="1" ht="15" customHeight="1">
       <c r="A73" s="17">
         <v>72</v>
       </c>
@@ -16950,10 +16346,10 @@
         <v>48</v>
       </c>
       <c r="C73" s="18">
-        <v>43917</v>
+        <v>43918</v>
       </c>
       <c r="D73" s="18">
-        <v>43918</v>
+        <v>43919</v>
       </c>
       <c r="E73" s="15" t="s">
         <v>41</v>
@@ -16983,7 +16379,7 @@
         <v>43</v>
       </c>
       <c r="T73" s="20">
-        <v>43919.3465277778</v>
+        <v>43919.346527777801</v>
       </c>
       <c r="U73" s="21" t="s">
         <v>44</v>
@@ -16995,7 +16391,7 @@
       <c r="X73" s="24"/>
       <c r="Y73" s="24"/>
       <c r="Z73" s="25">
-        <v>43919.41875</v>
+        <v>43919.418749999997</v>
       </c>
       <c r="AA73" s="15" t="s">
         <v>46</v>
@@ -17016,7 +16412,7 @@
       <c r="AM73" s="24"/>
       <c r="AN73" s="24"/>
     </row>
-    <row r="74" s="12" customFormat="1" customHeight="1" spans="1:40">
+    <row r="74" spans="1:40" s="12" customFormat="1" ht="15" customHeight="1">
       <c r="A74" s="17">
         <v>73</v>
       </c>
@@ -17024,10 +16420,10 @@
         <v>50</v>
       </c>
       <c r="C74" s="18">
-        <v>43917</v>
+        <v>43918</v>
       </c>
       <c r="D74" s="18">
-        <v>43918</v>
+        <v>43919</v>
       </c>
       <c r="E74" s="15" t="s">
         <v>41</v>
@@ -17059,7 +16455,7 @@
         <v>43</v>
       </c>
       <c r="T74" s="20">
-        <v>43919.3465277778</v>
+        <v>43919.346527777801</v>
       </c>
       <c r="U74" s="21" t="s">
         <v>44</v>
@@ -17071,7 +16467,7 @@
       <c r="X74" s="24"/>
       <c r="Y74" s="24"/>
       <c r="Z74" s="25">
-        <v>43919.41875</v>
+        <v>43919.418749999997</v>
       </c>
       <c r="AA74" s="15" t="s">
         <v>46</v>
@@ -17092,7 +16488,7 @@
       <c r="AM74" s="24"/>
       <c r="AN74" s="24"/>
     </row>
-    <row r="75" s="12" customFormat="1" customHeight="1" spans="1:40">
+    <row r="75" spans="1:40" s="12" customFormat="1" ht="15" customHeight="1">
       <c r="A75" s="17">
         <v>74</v>
       </c>
@@ -17100,10 +16496,10 @@
         <v>50</v>
       </c>
       <c r="C75" s="18">
-        <v>43917</v>
+        <v>43918</v>
       </c>
       <c r="D75" s="18">
-        <v>43918</v>
+        <v>43919</v>
       </c>
       <c r="E75" s="15" t="s">
         <v>41</v>
@@ -17135,7 +16531,7 @@
         <v>43</v>
       </c>
       <c r="T75" s="20">
-        <v>43919.3465277778</v>
+        <v>43919.346527777801</v>
       </c>
       <c r="U75" s="21" t="s">
         <v>44</v>
@@ -17147,7 +16543,7 @@
       <c r="X75" s="24"/>
       <c r="Y75" s="24"/>
       <c r="Z75" s="25">
-        <v>43919.41875</v>
+        <v>43919.418749999997</v>
       </c>
       <c r="AA75" s="15" t="s">
         <v>46</v>
@@ -17168,7 +16564,7 @@
       <c r="AM75" s="24"/>
       <c r="AN75" s="24"/>
     </row>
-    <row r="76" s="12" customFormat="1" customHeight="1" spans="1:40">
+    <row r="76" spans="1:40" s="12" customFormat="1" ht="15" customHeight="1">
       <c r="A76" s="17">
         <v>75</v>
       </c>
@@ -17176,10 +16572,10 @@
         <v>48</v>
       </c>
       <c r="C76" s="18">
-        <v>43917</v>
+        <v>43918</v>
       </c>
       <c r="D76" s="18">
-        <v>43918</v>
+        <v>43919</v>
       </c>
       <c r="E76" s="15" t="s">
         <v>41</v>
@@ -17191,12 +16587,14 @@
         <v>121</v>
       </c>
       <c r="H76" s="15"/>
-      <c r="I76" s="19"/>
+      <c r="I76" s="19">
+        <v>1</v>
+      </c>
       <c r="J76" s="19"/>
       <c r="K76" s="19"/>
       <c r="L76" s="19"/>
-      <c r="M76" s="19">
-        <v>39</v>
+      <c r="M76" s="15">
+        <v>42</v>
       </c>
       <c r="N76" s="19"/>
       <c r="O76" s="19"/>
@@ -17207,7 +16605,7 @@
         <v>43</v>
       </c>
       <c r="T76" s="20">
-        <v>43919.3465277778</v>
+        <v>43919.346527777801</v>
       </c>
       <c r="U76" s="21" t="s">
         <v>44</v>
@@ -17219,7 +16617,7 @@
       <c r="X76" s="24"/>
       <c r="Y76" s="24"/>
       <c r="Z76" s="25">
-        <v>43919.41875</v>
+        <v>43919.418749999997</v>
       </c>
       <c r="AA76" s="15" t="s">
         <v>46</v>
@@ -17240,7 +16638,7 @@
       <c r="AM76" s="24"/>
       <c r="AN76" s="24"/>
     </row>
-    <row r="77" s="12" customFormat="1" customHeight="1" spans="1:40">
+    <row r="77" spans="1:40" s="12" customFormat="1" ht="15" customHeight="1">
       <c r="A77" s="17">
         <v>76</v>
       </c>
@@ -17248,10 +16646,10 @@
         <v>50</v>
       </c>
       <c r="C77" s="18">
-        <v>43917</v>
+        <v>43918</v>
       </c>
       <c r="D77" s="18">
-        <v>43918</v>
+        <v>43919</v>
       </c>
       <c r="E77" s="15" t="s">
         <v>41</v>
@@ -17269,8 +16667,8 @@
       <c r="J77" s="19"/>
       <c r="K77" s="19"/>
       <c r="L77" s="19"/>
-      <c r="M77" s="19">
-        <v>9</v>
+      <c r="M77" s="15">
+        <v>10</v>
       </c>
       <c r="N77" s="19"/>
       <c r="O77" s="19"/>
@@ -17281,7 +16679,7 @@
         <v>43</v>
       </c>
       <c r="T77" s="20">
-        <v>43919.3465277778</v>
+        <v>43919.346527777801</v>
       </c>
       <c r="U77" s="21" t="s">
         <v>44</v>
@@ -17293,7 +16691,7 @@
       <c r="X77" s="24"/>
       <c r="Y77" s="24"/>
       <c r="Z77" s="25">
-        <v>43919.41875</v>
+        <v>43919.418749999997</v>
       </c>
       <c r="AA77" s="15" t="s">
         <v>46</v>
@@ -17314,7 +16712,7 @@
       <c r="AM77" s="24"/>
       <c r="AN77" s="24"/>
     </row>
-    <row r="78" s="12" customFormat="1" customHeight="1" spans="1:40">
+    <row r="78" spans="1:40" s="12" customFormat="1" ht="15" customHeight="1">
       <c r="A78" s="17">
         <v>77</v>
       </c>
@@ -17322,10 +16720,10 @@
         <v>50</v>
       </c>
       <c r="C78" s="18">
-        <v>43917</v>
+        <v>43918</v>
       </c>
       <c r="D78" s="18">
-        <v>43918</v>
+        <v>43919</v>
       </c>
       <c r="E78" s="15" t="s">
         <v>41</v>
@@ -17343,8 +16741,8 @@
       <c r="J78" s="19"/>
       <c r="K78" s="19"/>
       <c r="L78" s="19"/>
-      <c r="M78" s="19">
-        <v>6</v>
+      <c r="M78" s="15">
+        <v>7</v>
       </c>
       <c r="N78" s="19"/>
       <c r="O78" s="19"/>
@@ -17355,7 +16753,7 @@
         <v>43</v>
       </c>
       <c r="T78" s="20">
-        <v>43919.3465277778</v>
+        <v>43919.346527777801</v>
       </c>
       <c r="U78" s="21" t="s">
         <v>44</v>
@@ -17367,7 +16765,7 @@
       <c r="X78" s="24"/>
       <c r="Y78" s="24"/>
       <c r="Z78" s="25">
-        <v>43919.41875</v>
+        <v>43919.418749999997</v>
       </c>
       <c r="AA78" s="15" t="s">
         <v>46</v>
@@ -17388,7 +16786,7 @@
       <c r="AM78" s="24"/>
       <c r="AN78" s="24"/>
     </row>
-    <row r="79" s="12" customFormat="1" customHeight="1" spans="1:40">
+    <row r="79" spans="1:40" s="12" customFormat="1" ht="15" customHeight="1">
       <c r="A79" s="17">
         <v>78</v>
       </c>
@@ -17396,10 +16794,10 @@
         <v>50</v>
       </c>
       <c r="C79" s="18">
-        <v>43917</v>
+        <v>43918</v>
       </c>
       <c r="D79" s="18">
-        <v>43918</v>
+        <v>43919</v>
       </c>
       <c r="E79" s="15" t="s">
         <v>41</v>
@@ -17417,8 +16815,8 @@
       <c r="J79" s="19"/>
       <c r="K79" s="19"/>
       <c r="L79" s="19"/>
-      <c r="M79" s="19">
-        <v>18</v>
+      <c r="M79" s="15">
+        <v>19</v>
       </c>
       <c r="N79" s="19"/>
       <c r="O79" s="19"/>
@@ -17429,7 +16827,7 @@
         <v>43</v>
       </c>
       <c r="T79" s="20">
-        <v>43919.3465277778</v>
+        <v>43919.346527777801</v>
       </c>
       <c r="U79" s="21" t="s">
         <v>44</v>
@@ -17441,7 +16839,7 @@
       <c r="X79" s="24"/>
       <c r="Y79" s="24"/>
       <c r="Z79" s="25">
-        <v>43919.41875</v>
+        <v>43919.418749999997</v>
       </c>
       <c r="AA79" s="15" t="s">
         <v>46</v>
@@ -17462,7 +16860,7 @@
       <c r="AM79" s="24"/>
       <c r="AN79" s="24"/>
     </row>
-    <row r="80" s="12" customFormat="1" customHeight="1" spans="1:40">
+    <row r="80" spans="1:40" s="12" customFormat="1" ht="15" customHeight="1">
       <c r="A80" s="17">
         <v>79</v>
       </c>
@@ -17470,10 +16868,10 @@
         <v>50</v>
       </c>
       <c r="C80" s="18">
-        <v>43917</v>
+        <v>43918</v>
       </c>
       <c r="D80" s="18">
-        <v>43918</v>
+        <v>43919</v>
       </c>
       <c r="E80" s="15" t="s">
         <v>41</v>
@@ -17491,7 +16889,7 @@
       <c r="J80" s="19"/>
       <c r="K80" s="19"/>
       <c r="L80" s="19"/>
-      <c r="M80" s="19">
+      <c r="M80" s="15">
         <v>3</v>
       </c>
       <c r="N80" s="19"/>
@@ -17503,7 +16901,7 @@
         <v>43</v>
       </c>
       <c r="T80" s="20">
-        <v>43919.3465277778</v>
+        <v>43919.346527777801</v>
       </c>
       <c r="U80" s="21" t="s">
         <v>44</v>
@@ -17515,7 +16913,7 @@
       <c r="X80" s="24"/>
       <c r="Y80" s="24"/>
       <c r="Z80" s="25">
-        <v>43919.41875</v>
+        <v>43919.418749999997</v>
       </c>
       <c r="AA80" s="15" t="s">
         <v>46</v>
@@ -17536,7 +16934,7 @@
       <c r="AM80" s="24"/>
       <c r="AN80" s="24"/>
     </row>
-    <row r="81" s="12" customFormat="1" customHeight="1" spans="1:40">
+    <row r="81" spans="1:40" s="12" customFormat="1" ht="15" customHeight="1">
       <c r="A81" s="17">
         <v>80</v>
       </c>
@@ -17544,10 +16942,10 @@
         <v>50</v>
       </c>
       <c r="C81" s="18">
-        <v>43917</v>
+        <v>43918</v>
       </c>
       <c r="D81" s="18">
-        <v>43918</v>
+        <v>43919</v>
       </c>
       <c r="E81" s="15" t="s">
         <v>41</v>
@@ -17565,7 +16963,7 @@
       <c r="J81" s="19"/>
       <c r="K81" s="19"/>
       <c r="L81" s="19"/>
-      <c r="M81" s="19">
+      <c r="M81" s="15">
         <v>1</v>
       </c>
       <c r="N81" s="19"/>
@@ -17577,7 +16975,7 @@
         <v>43</v>
       </c>
       <c r="T81" s="20">
-        <v>43919.3465277778</v>
+        <v>43919.346527777801</v>
       </c>
       <c r="U81" s="21" t="s">
         <v>44</v>
@@ -17589,7 +16987,7 @@
       <c r="X81" s="24"/>
       <c r="Y81" s="24"/>
       <c r="Z81" s="25">
-        <v>43919.41875</v>
+        <v>43919.418749999997</v>
       </c>
       <c r="AA81" s="15" t="s">
         <v>46</v>
@@ -17610,7 +17008,7 @@
       <c r="AM81" s="24"/>
       <c r="AN81" s="24"/>
     </row>
-    <row r="82" customHeight="1" spans="1:28">
+    <row r="82" spans="1:40" ht="15" customHeight="1">
       <c r="A82" s="17">
         <v>81</v>
       </c>
@@ -17618,10 +17016,10 @@
         <v>50</v>
       </c>
       <c r="C82" s="18">
-        <v>43917</v>
+        <v>43918</v>
       </c>
       <c r="D82" s="18">
-        <v>43918</v>
+        <v>43919</v>
       </c>
       <c r="E82" s="15" t="s">
         <v>41</v>
@@ -17635,15 +17033,14 @@
       <c r="H82" s="15" t="s">
         <v>127</v>
       </c>
-      <c r="I82" s="13"/>
-      <c r="M82" s="13">
+      <c r="M82" s="19">
         <v>1</v>
       </c>
       <c r="S82" s="15" t="s">
         <v>43</v>
       </c>
       <c r="T82" s="20">
-        <v>43919.3465277778</v>
+        <v>43919.346527777801</v>
       </c>
       <c r="U82" s="21" t="s">
         <v>44</v>
@@ -17655,7 +17052,7 @@
       <c r="X82" s="24"/>
       <c r="Y82" s="24"/>
       <c r="Z82" s="25">
-        <v>43919.41875</v>
+        <v>43919.418749999997</v>
       </c>
       <c r="AA82" s="15" t="s">
         <v>46</v>
@@ -17664,7 +17061,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="83" customHeight="1" spans="1:28">
+    <row r="83" spans="1:40" ht="15" customHeight="1">
       <c r="A83" s="17">
         <v>82</v>
       </c>
@@ -17672,10 +17069,10 @@
         <v>50</v>
       </c>
       <c r="C83" s="18">
-        <v>43917</v>
+        <v>43918</v>
       </c>
       <c r="D83" s="18">
-        <v>43918</v>
+        <v>43919</v>
       </c>
       <c r="E83" s="15" t="s">
         <v>41</v>
@@ -17689,17 +17086,17 @@
       <c r="H83" s="15" t="s">
         <v>128</v>
       </c>
-      <c r="I83" s="13">
+      <c r="I83" s="19">
         <v>1</v>
       </c>
-      <c r="M83" s="13">
+      <c r="M83" s="19">
         <v>1</v>
       </c>
       <c r="S83" s="15" t="s">
         <v>43</v>
       </c>
       <c r="T83" s="20">
-        <v>43919.3465277778</v>
+        <v>43919.346527777801</v>
       </c>
       <c r="U83" s="21" t="s">
         <v>44</v>
@@ -17711,7 +17108,7 @@
       <c r="X83" s="24"/>
       <c r="Y83" s="24"/>
       <c r="Z83" s="25">
-        <v>43919.41875</v>
+        <v>43919.418749999997</v>
       </c>
       <c r="AA83" s="15" t="s">
         <v>46</v>
@@ -17720,57 +17117,121 @@
         <v>47</v>
       </c>
     </row>
+    <row r="84" spans="1:40" ht="15" customHeight="1">
+      <c r="A84" s="17">
+        <v>83</v>
+      </c>
+      <c r="B84" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="C84" s="18">
+        <v>43918</v>
+      </c>
+      <c r="D84" s="18">
+        <v>43919</v>
+      </c>
+      <c r="E84" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="F84" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="G84" s="15" t="s">
+        <v>121</v>
+      </c>
+      <c r="H84" s="15" t="s">
+        <v>3306</v>
+      </c>
+      <c r="J84" s="19">
+        <v>1</v>
+      </c>
+      <c r="M84" s="19"/>
+      <c r="S84" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="T84" s="20">
+        <v>43919.346527777801</v>
+      </c>
+      <c r="U84" s="21" t="s">
+        <v>44</v>
+      </c>
+      <c r="V84" s="22" t="s">
+        <v>45</v>
+      </c>
+      <c r="W84" s="23"/>
+      <c r="X84" s="24"/>
+      <c r="Y84" s="24"/>
+      <c r="Z84" s="25">
+        <v>43919.418749999997</v>
+      </c>
+      <c r="AA84" s="15" t="s">
+        <v>46</v>
+      </c>
+      <c r="AB84" s="15" t="s">
+        <v>47</v>
+      </c>
+    </row>
   </sheetData>
-  <dataValidations count="9">
-    <dataValidation type="whole" operator="notEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I45:O45 I46:N46 M31:M44 N40:N44 O31:O39 I47:O50 I31:K44 I2:O30 P2:R50 I51:R1048576">
+  <phoneticPr fontId="2" type="noConversion"/>
+  <dataValidations count="7">
+    <dataValidation type="whole" operator="notEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I45:O45 I46:N46 M31:M44 N40:N44 O31:O39 I47:O50 I31:K44 I2:O30 P2:R50 I51:R1048576" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>0</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AA2:AA80 AA81:AA83 AA84:AA1048576 AE2:AE1048576 AK2:AK1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AK2:AK1048576 AE2:AE1048576 AA2:AA1048576" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>"手动,自动"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H2:H10 H12:H45 H48:H66 H69:H76 H83:H1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H2:H10 H12:H45 H48:H66 H69:H76 H83 H85:H1048576" xr:uid="{00000000-0002-0000-0000-000002000000}">
       <formula1>INDIRECT($G2)</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" error="输入一个列表中的值" sqref="F82 F2:F81 F83:F1048576">
-      <formula1>中国各省市区县数据!$E$2:$E$36</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="G82 G83 G76:G81">
-      <formula1>中国各省市区县数据!$R$2:$R$12</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" error="输入一个列表中的值" sqref="B83 B2:B80 B81:B82 B84:B1048576">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" error="输入一个列表中的值" sqref="B2:B1048576" xr:uid="{00000000-0002-0000-0000-000005000000}">
       <formula1>"国家级,省级,城市级,区县级"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AC2:AC1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AC2:AC1048576" xr:uid="{00000000-0002-0000-0000-000006000000}">
       <formula1>"未核查,已核查"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G75 G84:G1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G75 G85:G1048576" xr:uid="{00000000-0002-0000-0000-000007000000}">
       <formula1>INDIRECT($F2)</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AG2:AG1048576 AM2:AM1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AM2:AM1048576 AG2:AG1048576" xr:uid="{00000000-0002-0000-0000-000008000000}">
       <formula1>"核查通过,核查未通过"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
-  <headerFooter/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
+        <x14:dataValidation type="list" allowBlank="1" showErrorMessage="1" error="输入一个列表中的值" xr:uid="{00000000-0002-0000-0000-000003000000}">
+          <x14:formula1>
+            <xm:f>中国各省市区县数据!$E$2:$E$36</xm:f>
+          </x14:formula1>
+          <xm:sqref>F2:F1048576</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000004000000}">
+          <x14:formula1>
+            <xm:f>中国各省市区县数据!$R$2:$R$12</xm:f>
+          </x14:formula1>
+          <xm:sqref>G76:G84</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AN2908"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection/>
       <selection pane="bottomLeft" activeCell="M21" sqref="M21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.6"/>
   <cols>
     <col min="2" max="2" width="18" customWidth="1"/>
-    <col min="5" max="5" width="13.46875" customWidth="1"/>
+    <col min="5" max="5" width="13.453125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:40">
@@ -42198,7 +41659,7 @@
       <c r="F1496" s="3"/>
       <c r="AN1496" s="3"/>
     </row>
-    <row r="1497" s="1" customFormat="1" spans="1:40">
+    <row r="1497" spans="1:40" s="1" customFormat="1">
       <c r="A1497" s="8" t="s">
         <v>143</v>
       </c>
@@ -65057,8 +64518,8 @@
       <c r="AN2908" s="3"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
-  <headerFooter/>
 </worksheet>
 </file>